--- a/Data/HRV2021_Data.xlsx
+++ b/Data/HRV2021_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lezjv\Dropbox\Omar&amp;Nacho\Baqaee_Burstein\Note on Structural Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lezjv\Dropbox\Omar&amp;Nacho\Baqaee_Burstein\Note on Structural Change\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23C9FD3-CA78-4CA4-88C5-E91B0768BD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC153B8-ECBE-40DA-B720-78AC75C4DCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="187">
   <si>
     <t>year</t>
   </si>
@@ -597,6 +597,9 @@
   <si>
     <t>VA_TOT/X_P</t>
   </si>
+  <si>
+    <t>Except for VA shares</t>
+  </si>
 </sst>
 </file>
 
@@ -629,7 +632,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +673,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,10 +726,12 @@
     <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1634,19 +1645,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CY75"/>
+  <dimension ref="A1:CY79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="14" topLeftCell="K71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="14" topLeftCell="P67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73:XFD73"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2:S78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -1658,8 +1669,9 @@
     <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -1843,16 +1855,16 @@
       <c r="AV1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>107</v>
       </c>
       <c r="BA1" t="s">
@@ -2044,10 +2056,12 @@
         <v>244136</v>
       </c>
       <c r="L2" s="3">
-        <v>101174.5</v>
+        <f>+Q2+R2</f>
+        <v>101635.01000000001</v>
       </c>
       <c r="M2" s="3">
-        <v>142961.5</v>
+        <f>+S2+T2</f>
+        <v>148311</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -2058,17 +2072,17 @@
       <c r="P2" s="2">
         <v>1</v>
       </c>
-      <c r="Q2" s="3">
-        <v>27728</v>
-      </c>
-      <c r="R2" s="3">
-        <v>71830</v>
-      </c>
-      <c r="S2" s="3">
-        <v>15639</v>
-      </c>
-      <c r="T2" s="3">
-        <v>128939</v>
+      <c r="Q2" s="25">
+        <v>27724.79</v>
+      </c>
+      <c r="R2" s="25">
+        <v>73910.22</v>
+      </c>
+      <c r="S2" s="25">
+        <v>15637.22</v>
+      </c>
+      <c r="T2" s="25">
+        <v>132673.78</v>
       </c>
       <c r="U2" s="3">
         <v>128228.3</v>
@@ -2149,16 +2163,20 @@
         <v>182</v>
       </c>
       <c r="AW2" s="20">
-        <v>0.63938019999999995</v>
+        <f>Q2/(Q2+S2)</f>
+        <v>0.63937972432550982</v>
       </c>
       <c r="AX2" s="20">
-        <v>0.36061979999999999</v>
+        <f>S2/(S2+Q2)</f>
+        <v>0.36062027567449018</v>
       </c>
       <c r="AY2" s="20">
-        <v>0.35777429999999999</v>
+        <f>R2/(R2+T2)</f>
+        <v>0.35777320605661622</v>
       </c>
       <c r="AZ2" s="20">
-        <v>0.64222570000000001</v>
+        <f>T2/(T2+R2)</f>
+        <v>0.64222679394338378</v>
       </c>
       <c r="BA2" s="20">
         <v>1.3930100000000001</v>
@@ -2349,10 +2367,12 @@
         <v>268064.5</v>
       </c>
       <c r="L3" s="3">
-        <v>116470.8</v>
+        <f t="shared" ref="L3:L66" si="0">+Q3+R3</f>
+        <v>116934</v>
       </c>
       <c r="M3" s="3">
-        <v>151593.70000000001</v>
+        <f t="shared" ref="M3:M66" si="1">+S3+T3</f>
+        <v>157884</v>
       </c>
       <c r="N3" s="2">
         <v>1.0551699999999999</v>
@@ -2363,17 +2383,17 @@
       <c r="P3" s="2">
         <v>1.0540499999999999</v>
       </c>
-      <c r="Q3" s="3">
-        <v>34947</v>
-      </c>
-      <c r="R3" s="3">
-        <v>79488</v>
-      </c>
-      <c r="S3" s="3">
-        <v>18223</v>
-      </c>
-      <c r="T3" s="3">
-        <v>135406.5</v>
+      <c r="Q3" s="25">
+        <v>34949.839999999997</v>
+      </c>
+      <c r="R3" s="25">
+        <v>81984.160000000003</v>
+      </c>
+      <c r="S3" s="25">
+        <v>18225.16</v>
+      </c>
+      <c r="T3" s="25">
+        <v>139658.84</v>
       </c>
       <c r="U3" s="3">
         <v>141262.29999999999</v>
@@ -2460,16 +2480,20 @@
         <v>183</v>
       </c>
       <c r="AW3" s="20">
-        <v>0.65726910000000005</v>
+        <f t="shared" ref="AW3:AW66" si="2">Q3/(Q3+S3)</f>
+        <v>0.65726074283027736</v>
       </c>
       <c r="AX3" s="20">
-        <v>0.3427308</v>
+        <f t="shared" ref="AX3:AX66" si="3">S3/(S3+Q3)</f>
+        <v>0.34273925716972259</v>
       </c>
       <c r="AY3" s="20">
-        <v>0.36989319999999998</v>
+        <f t="shared" ref="AY3:AY66" si="4">R3/(R3+T3)</f>
+        <v>0.36989284570232311</v>
       </c>
       <c r="AZ3" s="20">
-        <v>0.63010679999999997</v>
+        <f t="shared" ref="AZ3:AZ66" si="5">T3/(T3+R3)</f>
+        <v>0.63010715429767683</v>
       </c>
       <c r="BA3" s="20">
         <v>1.465546</v>
@@ -2660,10 +2684,12 @@
         <v>266020.90000000002</v>
       </c>
       <c r="L4" s="3">
-        <v>109193.9</v>
+        <f t="shared" si="0"/>
+        <v>109987</v>
       </c>
       <c r="M4" s="3">
-        <v>156827</v>
+        <f t="shared" si="1"/>
+        <v>162861</v>
       </c>
       <c r="N4" s="2">
         <v>1.0538400000000001</v>
@@ -2674,17 +2700,17 @@
       <c r="P4" s="2">
         <v>1.08005</v>
       </c>
-      <c r="Q4" s="3">
-        <v>34250</v>
-      </c>
-      <c r="R4" s="3">
-        <v>73387</v>
-      </c>
-      <c r="S4" s="3">
-        <v>18856</v>
-      </c>
-      <c r="T4" s="3">
-        <v>139527.9</v>
+      <c r="Q4" s="25">
+        <v>34242.620000000003</v>
+      </c>
+      <c r="R4" s="25">
+        <v>75744.38</v>
+      </c>
+      <c r="S4" s="25">
+        <v>18852.38</v>
+      </c>
+      <c r="T4" s="25">
+        <v>144008.62</v>
       </c>
       <c r="U4" s="3">
         <v>144455.79999999999</v>
@@ -2769,16 +2795,20 @@
       </c>
       <c r="AV4" s="19"/>
       <c r="AW4" s="20">
-        <v>0.64493659999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.64493116112628313</v>
       </c>
       <c r="AX4" s="20">
-        <v>0.35506349999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.35506883887371693</v>
       </c>
       <c r="AY4" s="20">
-        <v>0.34467769999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.34467961757063614</v>
       </c>
       <c r="AZ4" s="20">
-        <v>0.65532239999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.65532038242936386</v>
       </c>
       <c r="BA4" s="20">
         <v>1.4271579999999999</v>
@@ -2969,10 +2999,12 @@
         <v>293337.2</v>
       </c>
       <c r="L5" s="3">
-        <v>124854.9</v>
+        <f t="shared" si="0"/>
+        <v>125615</v>
       </c>
       <c r="M5" s="3">
-        <v>168482.4</v>
+        <f t="shared" si="1"/>
+        <v>174599</v>
       </c>
       <c r="N5" s="2">
         <v>1.0758700000000001</v>
@@ -2983,17 +3015,17 @@
       <c r="P5" s="2">
         <v>1.0937300000000001</v>
       </c>
-      <c r="Q5" s="3">
-        <v>40281</v>
-      </c>
-      <c r="R5" s="3">
-        <v>82869</v>
-      </c>
-      <c r="S5" s="3">
-        <v>21935</v>
-      </c>
-      <c r="T5" s="3">
-        <v>148252.20000000001</v>
+      <c r="Q5" s="25">
+        <v>40279.949999999997</v>
+      </c>
+      <c r="R5" s="25">
+        <v>85335.05</v>
+      </c>
+      <c r="S5" s="25">
+        <v>21934.06</v>
+      </c>
+      <c r="T5" s="25">
+        <v>152664.94</v>
       </c>
       <c r="U5" s="3">
         <v>153536.1</v>
@@ -3076,18 +3108,24 @@
       <c r="AU5" s="2">
         <v>1.11748</v>
       </c>
-      <c r="AV5" s="19"/>
+      <c r="AV5" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="AW5" s="20">
-        <v>0.64743790000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.64744179004053914</v>
       </c>
       <c r="AX5" s="20">
-        <v>0.35256199999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.35255820995946097</v>
       </c>
       <c r="AY5" s="20">
-        <v>0.35855209999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.35855064531725406</v>
       </c>
       <c r="AZ5" s="20">
-        <v>0.64144789999999996</v>
+        <f t="shared" si="5"/>
+        <v>0.641449354682746</v>
       </c>
       <c r="BA5" s="20">
         <v>1.5237019999999999</v>
@@ -3278,10 +3316,12 @@
         <v>339441.1</v>
       </c>
       <c r="L6" s="3">
-        <v>147250.9</v>
+        <f t="shared" si="0"/>
+        <v>148212.01</v>
       </c>
       <c r="M6" s="3">
-        <v>192190.2</v>
+        <f t="shared" si="1"/>
+        <v>199088.99</v>
       </c>
       <c r="N6" s="2">
         <v>1.1674599999999999</v>
@@ -3292,17 +3332,17 @@
       <c r="P6" s="2">
         <v>1.16604</v>
       </c>
-      <c r="Q6" s="3">
-        <v>48549</v>
-      </c>
-      <c r="R6" s="3">
-        <v>96818</v>
-      </c>
-      <c r="S6" s="3">
-        <v>23881</v>
-      </c>
-      <c r="T6" s="3">
-        <v>170193.1</v>
+      <c r="Q6" s="25">
+        <v>48539.13</v>
+      </c>
+      <c r="R6" s="25">
+        <v>99672.88</v>
+      </c>
+      <c r="S6" s="25">
+        <v>23876.87</v>
+      </c>
+      <c r="T6" s="25">
+        <v>175212.12</v>
       </c>
       <c r="U6" s="3">
         <v>174406.8</v>
@@ -3387,16 +3427,20 @@
       </c>
       <c r="AV6" s="19"/>
       <c r="AW6" s="20">
-        <v>0.67028860000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.6702818437914273</v>
       </c>
       <c r="AX6" s="20">
-        <v>0.32971139999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.3297181562085727</v>
       </c>
       <c r="AY6" s="20">
-        <v>0.36259920000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.36259846845044291</v>
       </c>
       <c r="AZ6" s="20">
-        <v>0.63740079999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.63740153154955703</v>
       </c>
       <c r="BA6" s="20">
         <v>1.730613</v>
@@ -3587,10 +3631,12 @@
         <v>359559.4</v>
       </c>
       <c r="L7" s="3">
-        <v>151906.79999999999</v>
+        <f t="shared" si="0"/>
+        <v>153064</v>
       </c>
       <c r="M7" s="3">
-        <v>207652.6</v>
+        <f t="shared" si="1"/>
+        <v>214695</v>
       </c>
       <c r="N7" s="2">
         <v>1.1915199999999999</v>
@@ -3601,17 +3647,17 @@
       <c r="P7" s="2">
         <v>1.2197199999999999</v>
       </c>
-      <c r="Q7" s="3">
-        <v>52704</v>
-      </c>
-      <c r="R7" s="3">
-        <v>97519</v>
-      </c>
-      <c r="S7" s="3">
-        <v>25676</v>
-      </c>
-      <c r="T7" s="3">
-        <v>183660.4</v>
+      <c r="Q7" s="25">
+        <v>52699.58</v>
+      </c>
+      <c r="R7" s="25">
+        <v>100364.42</v>
+      </c>
+      <c r="S7" s="25">
+        <v>25674.42</v>
+      </c>
+      <c r="T7" s="25">
+        <v>189020.58</v>
       </c>
       <c r="U7" s="3">
         <v>184289.9</v>
@@ -3696,16 +3742,20 @@
       </c>
       <c r="AV7" s="19"/>
       <c r="AW7" s="20">
-        <v>0.67241640000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.67241151402250754</v>
       </c>
       <c r="AX7" s="20">
-        <v>0.32758359999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.32758848597749252</v>
       </c>
       <c r="AY7" s="20">
-        <v>0.3468213</v>
+        <f t="shared" si="4"/>
+        <v>0.34681970385472638</v>
       </c>
       <c r="AZ7" s="20">
-        <v>0.6531787</v>
+        <f t="shared" si="5"/>
+        <v>0.65318029614527351</v>
       </c>
       <c r="BA7" s="20">
         <v>1.7914760000000001</v>
@@ -3896,10 +3946,12 @@
         <v>380859.3</v>
       </c>
       <c r="L8" s="3">
-        <v>160699.70000000001</v>
+        <f t="shared" si="0"/>
+        <v>162213</v>
       </c>
       <c r="M8" s="3">
-        <v>220159.5</v>
+        <f t="shared" si="1"/>
+        <v>227562</v>
       </c>
       <c r="N8" s="2">
         <v>1.2017500000000001</v>
@@ -3910,17 +3962,17 @@
       <c r="P8" s="2">
         <v>1.2486200000000001</v>
       </c>
-      <c r="Q8" s="3">
-        <v>57343</v>
-      </c>
-      <c r="R8" s="3">
-        <v>101806</v>
-      </c>
-      <c r="S8" s="3">
-        <v>27789</v>
-      </c>
-      <c r="T8" s="3">
-        <v>193921.3</v>
+      <c r="Q8" s="25">
+        <v>57332.42</v>
+      </c>
+      <c r="R8" s="25">
+        <v>104880.58</v>
+      </c>
+      <c r="S8" s="25">
+        <v>27784.58</v>
+      </c>
+      <c r="T8" s="25">
+        <v>199777.42</v>
       </c>
       <c r="U8" s="3">
         <v>202171.1</v>
@@ -4005,16 +4057,20 @@
       </c>
       <c r="AV8" s="19"/>
       <c r="AW8" s="20">
-        <v>0.67357750000000005</v>
+        <f t="shared" si="2"/>
+        <v>0.67357190690461366</v>
       </c>
       <c r="AX8" s="20">
-        <v>0.3264225</v>
+        <f t="shared" si="3"/>
+        <v>0.3264280930953864</v>
       </c>
       <c r="AY8" s="20">
-        <v>0.34425640000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.3442567731686022</v>
       </c>
       <c r="AZ8" s="20">
-        <v>0.65574359999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.65574322683139785</v>
       </c>
       <c r="BA8" s="20">
         <v>1.853334</v>
@@ -4205,10 +4261,12 @@
         <v>382379.5</v>
       </c>
       <c r="L9" s="3">
-        <v>155580.9</v>
+        <f t="shared" si="0"/>
+        <v>156961</v>
       </c>
       <c r="M9" s="3">
-        <v>226798.6</v>
+        <f t="shared" si="1"/>
+        <v>234197</v>
       </c>
       <c r="N9" s="2">
         <v>1.20913</v>
@@ -4219,17 +4277,17 @@
       <c r="P9" s="2">
         <v>1.26641</v>
       </c>
-      <c r="Q9" s="3">
-        <v>56328</v>
-      </c>
-      <c r="R9" s="3">
-        <v>97746</v>
-      </c>
-      <c r="S9" s="3">
-        <v>29075</v>
-      </c>
-      <c r="T9" s="3">
-        <v>199230.5</v>
+      <c r="Q9" s="25">
+        <v>56323.78</v>
+      </c>
+      <c r="R9" s="25">
+        <v>100637.22</v>
+      </c>
+      <c r="S9" s="25">
+        <v>29072.22</v>
+      </c>
+      <c r="T9" s="25">
+        <v>205124.78</v>
       </c>
       <c r="U9" s="3">
         <v>197065.8</v>
@@ -4314,16 +4372,20 @@
       </c>
       <c r="AV9" s="19"/>
       <c r="AW9" s="20">
-        <v>0.65955529999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.65955993254953393</v>
       </c>
       <c r="AX9" s="20">
-        <v>0.34044469999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.34044006745046607</v>
       </c>
       <c r="AY9" s="20">
-        <v>0.32913710000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.32913579843145979</v>
       </c>
       <c r="AZ9" s="20">
-        <v>0.67086290000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.67086420156854021</v>
       </c>
       <c r="BA9" s="20">
         <v>1.8287739999999999</v>
@@ -4514,10 +4576,12 @@
         <v>416129</v>
       </c>
       <c r="L10" s="3">
-        <v>170891.4</v>
+        <f t="shared" si="0"/>
+        <v>172825.99</v>
       </c>
       <c r="M10" s="3">
-        <v>245237.5</v>
+        <f t="shared" si="1"/>
+        <v>253357.01</v>
       </c>
       <c r="N10" s="2">
         <v>1.22688</v>
@@ -4528,17 +4592,17 @@
       <c r="P10" s="2">
         <v>1.2934699999999999</v>
       </c>
-      <c r="Q10" s="3">
-        <v>60978</v>
-      </c>
-      <c r="R10" s="3">
-        <v>108469</v>
-      </c>
-      <c r="S10" s="3">
-        <v>32147</v>
-      </c>
-      <c r="T10" s="3">
-        <v>214535</v>
+      <c r="Q10" s="25">
+        <v>60982.58</v>
+      </c>
+      <c r="R10" s="25">
+        <v>111843.41</v>
+      </c>
+      <c r="S10" s="25">
+        <v>32149.42</v>
+      </c>
+      <c r="T10" s="25">
+        <v>221207.59</v>
       </c>
       <c r="U10" s="3">
         <v>222725.8</v>
@@ -4623,16 +4687,20 @@
       </c>
       <c r="AV10" s="19"/>
       <c r="AW10" s="20">
-        <v>0.65479730000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.65479727698320667</v>
       </c>
       <c r="AX10" s="20">
-        <v>0.34520269999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.34520272301679333</v>
       </c>
       <c r="AY10" s="20">
-        <v>0.33581319999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.33581466502127305</v>
       </c>
       <c r="AZ10" s="20">
-        <v>0.66418679999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.664185334978727</v>
       </c>
       <c r="BA10" s="20">
         <v>1.9543429999999999</v>
@@ -4823,10 +4891,12 @@
         <v>439820.3</v>
       </c>
       <c r="L11" s="3">
-        <v>179118</v>
+        <f t="shared" si="0"/>
+        <v>181049</v>
       </c>
       <c r="M11" s="3">
-        <v>260702.3</v>
+        <f t="shared" si="1"/>
+        <v>269096</v>
       </c>
       <c r="N11" s="2">
         <v>1.27597</v>
@@ -4837,17 +4907,17 @@
       <c r="P11" s="2">
         <v>1.33792</v>
       </c>
-      <c r="Q11" s="3">
-        <v>66152</v>
-      </c>
-      <c r="R11" s="3">
-        <v>111503</v>
-      </c>
-      <c r="S11" s="3">
-        <v>34729</v>
-      </c>
-      <c r="T11" s="3">
-        <v>227436.3</v>
+      <c r="Q11" s="25">
+        <v>66146.36</v>
+      </c>
+      <c r="R11" s="25">
+        <v>114902.64</v>
+      </c>
+      <c r="S11" s="25">
+        <v>34725.64</v>
+      </c>
+      <c r="T11" s="25">
+        <v>234370.36</v>
       </c>
       <c r="U11" s="3">
         <v>236725</v>
@@ -4932,16 +5002,20 @@
       </c>
       <c r="AV11" s="19"/>
       <c r="AW11" s="20">
-        <v>0.65574290000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.65574549924656989</v>
       </c>
       <c r="AX11" s="20">
-        <v>0.34425709999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.34425450075343006</v>
       </c>
       <c r="AY11" s="20">
-        <v>0.3289763</v>
+        <f t="shared" si="4"/>
+        <v>0.32897658851385592</v>
       </c>
       <c r="AZ11" s="20">
-        <v>0.6710237</v>
+        <f t="shared" si="5"/>
+        <v>0.67102341148614408</v>
       </c>
       <c r="BA11" s="20">
         <v>2.0148450000000002</v>
@@ -5132,10 +5206,12 @@
         <v>463620.3</v>
       </c>
       <c r="L12" s="3">
-        <v>185726.9</v>
+        <f t="shared" si="0"/>
+        <v>187694</v>
       </c>
       <c r="M12" s="3">
-        <v>277893.40000000002</v>
+        <f t="shared" si="1"/>
+        <v>287167</v>
       </c>
       <c r="N12" s="2">
         <v>1.3188599999999999</v>
@@ -5146,17 +5222,17 @@
       <c r="P12" s="2">
         <v>1.38297</v>
       </c>
-      <c r="Q12" s="3">
-        <v>69278</v>
-      </c>
-      <c r="R12" s="3">
-        <v>114808</v>
-      </c>
-      <c r="S12" s="3">
-        <v>36679</v>
-      </c>
-      <c r="T12" s="3">
-        <v>242855.3</v>
+      <c r="Q12" s="25">
+        <v>69278.16</v>
+      </c>
+      <c r="R12" s="25">
+        <v>118415.84</v>
+      </c>
+      <c r="S12" s="25">
+        <v>36678.839999999997</v>
+      </c>
+      <c r="T12" s="25">
+        <v>250488.16</v>
       </c>
       <c r="U12" s="3">
         <v>253734.3</v>
@@ -5241,16 +5317,20 @@
       </c>
       <c r="AV12" s="19"/>
       <c r="AW12" s="20">
-        <v>0.65383119999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.65383278122257149</v>
       </c>
       <c r="AX12" s="20">
-        <v>0.3461687</v>
+        <f t="shared" si="3"/>
+        <v>0.34616721877742856</v>
       </c>
       <c r="AY12" s="20">
-        <v>0.32099470000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.32099364604341507</v>
       </c>
       <c r="AZ12" s="20">
-        <v>0.67900530000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.67900635395658493</v>
       </c>
       <c r="BA12" s="20">
         <v>2.0882520000000002</v>
@@ -5441,10 +5521,12 @@
         <v>470428.9</v>
       </c>
       <c r="L13" s="3">
-        <v>181038.2</v>
+        <f t="shared" si="0"/>
+        <v>182753</v>
       </c>
       <c r="M13" s="3">
-        <v>289390.7</v>
+        <f t="shared" si="1"/>
+        <v>299280</v>
       </c>
       <c r="N13" s="2">
         <v>1.3479699999999999</v>
@@ -5455,17 +5537,17 @@
       <c r="P13" s="2">
         <v>1.4172800000000001</v>
       </c>
-      <c r="Q13" s="3">
-        <v>66359</v>
-      </c>
-      <c r="R13" s="3">
-        <v>112824</v>
-      </c>
-      <c r="S13" s="3">
-        <v>37576</v>
-      </c>
-      <c r="T13" s="3">
-        <v>253669.9</v>
+      <c r="Q13" s="25">
+        <v>66354.100000000006</v>
+      </c>
+      <c r="R13" s="25">
+        <v>116398.9</v>
+      </c>
+      <c r="S13" s="25">
+        <v>37572.89</v>
+      </c>
+      <c r="T13" s="25">
+        <v>261707.11</v>
       </c>
       <c r="U13" s="3">
         <v>259092.8</v>
@@ -5550,16 +5632,20 @@
       </c>
       <c r="AV13" s="19"/>
       <c r="AW13" s="20">
-        <v>0.63846639999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.63846840940933636</v>
       </c>
       <c r="AX13" s="20">
-        <v>0.36153360000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.3615315905906637</v>
       </c>
       <c r="AY13" s="20">
-        <v>0.30784689999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.30784726220035485</v>
       </c>
       <c r="AZ13" s="20">
-        <v>0.69215309999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.69215273779964503</v>
       </c>
       <c r="BA13" s="20">
         <v>2.104581</v>
@@ -5750,10 +5836,12 @@
         <v>509054.2</v>
       </c>
       <c r="L14" s="3">
-        <v>196703.9</v>
+        <f t="shared" si="0"/>
+        <v>198820</v>
       </c>
       <c r="M14" s="3">
-        <v>312350.3</v>
+        <f t="shared" si="1"/>
+        <v>323666.99</v>
       </c>
       <c r="N14" s="2">
         <v>1.3710500000000001</v>
@@ -5764,17 +5852,17 @@
       <c r="P14" s="2">
         <v>1.4447399999999999</v>
       </c>
-      <c r="Q14" s="3">
-        <v>74932</v>
-      </c>
-      <c r="R14" s="3">
-        <v>119779</v>
-      </c>
-      <c r="S14" s="3">
-        <v>42683</v>
-      </c>
-      <c r="T14" s="3">
-        <v>271660.2</v>
+      <c r="Q14" s="25">
+        <v>74929.73</v>
+      </c>
+      <c r="R14" s="25">
+        <v>123890.27</v>
+      </c>
+      <c r="S14" s="25">
+        <v>42681.27</v>
+      </c>
+      <c r="T14" s="25">
+        <v>280985.71999999997</v>
       </c>
       <c r="U14" s="3">
         <v>275964.79999999999</v>
@@ -5859,16 +5947,20 @@
       </c>
       <c r="AV14" s="19"/>
       <c r="AW14" s="20">
-        <v>0.63709559999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.63709797552949976</v>
       </c>
       <c r="AX14" s="20">
-        <v>0.36290440000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.36290202447050018</v>
       </c>
       <c r="AY14" s="20">
-        <v>0.3059964</v>
+        <f t="shared" si="4"/>
+        <v>0.30599559633061968</v>
       </c>
       <c r="AZ14" s="20">
-        <v>0.69400360000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.69400440366938032</v>
       </c>
       <c r="BA14" s="20">
         <v>2.2098979999999999</v>
@@ -6059,10 +6151,12 @@
         <v>529152.19999999995</v>
       </c>
       <c r="L15" s="3">
-        <v>200917.2</v>
+        <f t="shared" si="0"/>
+        <v>203122</v>
       </c>
       <c r="M15" s="3">
-        <v>328235</v>
+        <f t="shared" si="1"/>
+        <v>340137.99</v>
       </c>
       <c r="N15" s="2">
         <v>1.3880999999999999</v>
@@ -6073,17 +6167,17 @@
       <c r="P15" s="2">
         <v>1.47366</v>
       </c>
-      <c r="Q15" s="3">
-        <v>75851</v>
-      </c>
-      <c r="R15" s="3">
-        <v>123039</v>
-      </c>
-      <c r="S15" s="3">
-        <v>43397</v>
-      </c>
-      <c r="T15" s="3">
-        <v>286865.2</v>
+      <c r="Q15" s="25">
+        <v>75846.98</v>
+      </c>
+      <c r="R15" s="25">
+        <v>127275.02</v>
+      </c>
+      <c r="S15" s="25">
+        <v>43395.02</v>
+      </c>
+      <c r="T15" s="25">
+        <v>296742.96999999997</v>
       </c>
       <c r="U15" s="3">
         <v>297053.8</v>
@@ -6168,16 +6262,20 @@
       </c>
       <c r="AV15" s="19"/>
       <c r="AW15" s="20">
-        <v>0.63607780000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.63607604703040876</v>
       </c>
       <c r="AX15" s="20">
-        <v>0.36392219999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.36392395296959124</v>
       </c>
       <c r="AY15" s="20">
-        <v>0.30016530000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.30016419822187262</v>
       </c>
       <c r="AZ15" s="20">
-        <v>0.69983470000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.69983580177812732</v>
       </c>
       <c r="BA15" s="20">
         <v>2.267671</v>
@@ -6368,10 +6466,12 @@
         <v>548911.5</v>
       </c>
       <c r="L16" s="3">
-        <v>203742.1</v>
+        <f t="shared" si="0"/>
+        <v>205797</v>
       </c>
       <c r="M16" s="3">
-        <v>345169.4</v>
+        <f t="shared" si="1"/>
+        <v>357507.00999999995</v>
       </c>
       <c r="N16" s="2">
         <v>1.40506</v>
@@ -6382,17 +6482,17 @@
       <c r="P16" s="2">
         <v>1.49882</v>
       </c>
-      <c r="Q16" s="3">
-        <v>77702</v>
-      </c>
-      <c r="R16" s="3">
-        <v>123904</v>
-      </c>
-      <c r="S16" s="3">
-        <v>45805</v>
-      </c>
-      <c r="T16" s="3">
-        <v>301500.5</v>
+      <c r="Q16" s="25">
+        <v>77700.960000000006</v>
+      </c>
+      <c r="R16" s="25">
+        <v>128096.04</v>
+      </c>
+      <c r="S16" s="25">
+        <v>45805.04</v>
+      </c>
+      <c r="T16" s="25">
+        <v>311701.96999999997</v>
       </c>
       <c r="U16" s="3">
         <v>301880.8</v>
@@ -6477,16 +6577,20 @@
       </c>
       <c r="AV16" s="19"/>
       <c r="AW16" s="20">
-        <v>0.62913030000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.62912700597541826</v>
       </c>
       <c r="AX16" s="20">
-        <v>0.37086970000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.37087299402458179</v>
       </c>
       <c r="AY16" s="20">
-        <v>0.29126160000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.29126107232727133</v>
       </c>
       <c r="AZ16" s="20">
-        <v>0.70873839999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.70873892767272872</v>
       </c>
       <c r="BA16" s="20">
         <v>2.3152270000000001</v>
@@ -6677,10 +6781,12 @@
         <v>590282.80000000005</v>
       </c>
       <c r="L17" s="3">
-        <v>220577.9</v>
+        <f t="shared" si="0"/>
+        <v>222592.01</v>
       </c>
       <c r="M17" s="3">
-        <v>369704.9</v>
+        <f t="shared" si="1"/>
+        <v>382553.99000000005</v>
       </c>
       <c r="N17" s="2">
         <v>1.4207000000000001</v>
@@ -6691,17 +6797,17 @@
       <c r="P17" s="2">
         <v>1.5226</v>
       </c>
-      <c r="Q17" s="3">
-        <v>84653</v>
-      </c>
-      <c r="R17" s="3">
-        <v>133590</v>
-      </c>
-      <c r="S17" s="3">
-        <v>48820</v>
-      </c>
-      <c r="T17" s="3">
-        <v>323219.8</v>
+      <c r="Q17" s="25">
+        <v>84657.1</v>
+      </c>
+      <c r="R17" s="25">
+        <v>137934.91</v>
+      </c>
+      <c r="S17" s="25">
+        <v>48821.9</v>
+      </c>
+      <c r="T17" s="25">
+        <v>333732.09000000003</v>
       </c>
       <c r="U17" s="3">
         <v>314614.2</v>
@@ -6786,16 +6892,20 @@
       </c>
       <c r="AV17" s="19"/>
       <c r="AW17" s="20">
-        <v>0.63423309999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.63423534788243852</v>
       </c>
       <c r="AX17" s="20">
-        <v>0.36576690000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.3657646521175616</v>
       </c>
       <c r="AY17" s="20">
-        <v>0.29244120000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.29244129862805751</v>
       </c>
       <c r="AZ17" s="20">
-        <v>0.70755880000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.70755870137194254</v>
       </c>
       <c r="BA17" s="20">
         <v>2.4482010000000001</v>
@@ -6986,10 +7096,12 @@
         <v>622498.4</v>
       </c>
       <c r="L18" s="3">
-        <v>231575</v>
+        <f t="shared" si="0"/>
+        <v>234027</v>
       </c>
       <c r="M18" s="3">
-        <v>390923.4</v>
+        <f t="shared" si="1"/>
+        <v>404586</v>
       </c>
       <c r="N18" s="2">
         <v>1.4325699999999999</v>
@@ -7000,17 +7112,17 @@
       <c r="P18" s="2">
         <v>1.54437</v>
       </c>
-      <c r="Q18" s="3">
-        <v>89937</v>
-      </c>
-      <c r="R18" s="3">
-        <v>139413</v>
-      </c>
-      <c r="S18" s="3">
-        <v>52164</v>
-      </c>
-      <c r="T18" s="3">
-        <v>340984.4</v>
+      <c r="Q18" s="25">
+        <v>89937.38</v>
+      </c>
+      <c r="R18" s="25">
+        <v>144089.62</v>
+      </c>
+      <c r="S18" s="25">
+        <v>52163.62</v>
+      </c>
+      <c r="T18" s="25">
+        <v>352422.38</v>
       </c>
       <c r="U18" s="3">
         <v>337196.3</v>
@@ -7095,16 +7207,20 @@
       </c>
       <c r="AV18" s="19"/>
       <c r="AW18" s="20">
-        <v>0.63290900000000005</v>
+        <f t="shared" si="2"/>
+        <v>0.63291166142391686</v>
       </c>
       <c r="AX18" s="20">
-        <v>0.367091</v>
+        <f t="shared" si="3"/>
+        <v>0.36708833857608325</v>
       </c>
       <c r="AY18" s="20">
-        <v>0.2902035</v>
+        <f t="shared" si="4"/>
+        <v>0.29020370101830367</v>
       </c>
       <c r="AZ18" s="20">
-        <v>0.70979650000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.70979629898169627</v>
       </c>
       <c r="BA18" s="20">
         <v>2.537757</v>
@@ -7295,10 +7411,12 @@
         <v>668361.9</v>
       </c>
       <c r="L19" s="3">
-        <v>246757</v>
+        <f t="shared" si="0"/>
+        <v>249174.01</v>
       </c>
       <c r="M19" s="3">
-        <v>421604.9</v>
+        <f t="shared" si="1"/>
+        <v>436673.01</v>
       </c>
       <c r="N19" s="2">
         <v>1.4539299999999999</v>
@@ -7309,17 +7427,17 @@
       <c r="P19" s="2">
         <v>1.5774999999999999</v>
       </c>
-      <c r="Q19" s="3">
-        <v>97439</v>
-      </c>
-      <c r="R19" s="3">
-        <v>146749</v>
-      </c>
-      <c r="S19" s="3">
-        <v>56282</v>
-      </c>
-      <c r="T19" s="3">
-        <v>367891.9</v>
+      <c r="Q19" s="25">
+        <v>97439.49</v>
+      </c>
+      <c r="R19" s="25">
+        <v>151734.51999999999</v>
+      </c>
+      <c r="S19" s="25">
+        <v>56281.51</v>
+      </c>
+      <c r="T19" s="25">
+        <v>380391.5</v>
       </c>
       <c r="U19" s="3">
         <v>365229.3</v>
@@ -7404,16 +7522,20 @@
       </c>
       <c r="AV19" s="19"/>
       <c r="AW19" s="20">
-        <v>0.63386920000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.63387234014871097</v>
       </c>
       <c r="AX19" s="20">
-        <v>0.36613089999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.36612765985128903</v>
       </c>
       <c r="AY19" s="20">
-        <v>0.28514840000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.2851477174523433</v>
       </c>
       <c r="AZ19" s="20">
-        <v>0.71485160000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.71485228254765665</v>
       </c>
       <c r="BA19" s="20">
         <v>2.681441</v>
@@ -7604,10 +7726,12 @@
         <v>726085.1</v>
       </c>
       <c r="L20" s="3">
-        <v>271949</v>
+        <f t="shared" si="0"/>
+        <v>273967</v>
       </c>
       <c r="M20" s="3">
-        <v>454136.1</v>
+        <f t="shared" si="1"/>
+        <v>469792.01</v>
       </c>
       <c r="N20" s="2">
         <v>1.48525</v>
@@ -7618,17 +7742,17 @@
       <c r="P20" s="2">
         <v>1.6141099999999999</v>
       </c>
-      <c r="Q20" s="3">
-        <v>107033</v>
-      </c>
-      <c r="R20" s="3">
-        <v>161808</v>
-      </c>
-      <c r="S20" s="3">
-        <v>61228</v>
-      </c>
-      <c r="T20" s="3">
-        <v>396016.1</v>
+      <c r="Q20" s="25">
+        <v>107032.27</v>
+      </c>
+      <c r="R20" s="25">
+        <v>166934.73000000001</v>
+      </c>
+      <c r="S20" s="25">
+        <v>61227.73</v>
+      </c>
+      <c r="T20" s="25">
+        <v>408564.28</v>
       </c>
       <c r="U20" s="3">
         <v>390363.7</v>
@@ -7713,16 +7837,20 @@
       </c>
       <c r="AV20" s="19"/>
       <c r="AW20" s="20">
-        <v>0.63611289999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.63611238559372407</v>
       </c>
       <c r="AX20" s="20">
-        <v>0.36388700000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.36388761440627604</v>
       </c>
       <c r="AY20" s="20">
-        <v>0.29006989999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.29006953461136276</v>
       </c>
       <c r="AZ20" s="20">
-        <v>0.70993010000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.70993046538863724</v>
       </c>
       <c r="BA20" s="20">
         <v>2.8702480000000001</v>
@@ -7913,10 +8041,12 @@
         <v>796105.9</v>
       </c>
       <c r="L21" s="3">
-        <v>298803.59999999998</v>
+        <f t="shared" si="0"/>
+        <v>301066</v>
       </c>
       <c r="M21" s="3">
-        <v>497302.3</v>
+        <f t="shared" si="1"/>
+        <v>513967</v>
       </c>
       <c r="N21" s="2">
         <v>1.53237</v>
@@ -7927,17 +8057,17 @@
       <c r="P21" s="2">
         <v>1.6662399999999999</v>
       </c>
-      <c r="Q21" s="3">
-        <v>117734</v>
-      </c>
-      <c r="R21" s="3">
-        <v>177834</v>
-      </c>
-      <c r="S21" s="3">
-        <v>66385</v>
-      </c>
-      <c r="T21" s="3">
-        <v>434152.9</v>
+      <c r="Q21" s="25">
+        <v>117730</v>
+      </c>
+      <c r="R21" s="25">
+        <v>183336</v>
+      </c>
+      <c r="S21" s="25">
+        <v>66383</v>
+      </c>
+      <c r="T21" s="25">
+        <v>447584</v>
       </c>
       <c r="U21" s="3">
         <v>436812.79999999999</v>
@@ -8022,16 +8152,20 @@
       </c>
       <c r="AV21" s="19"/>
       <c r="AW21" s="20">
-        <v>0.63944509999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.6394442543437997</v>
       </c>
       <c r="AX21" s="20">
-        <v>0.36055480000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.36055574565620024</v>
       </c>
       <c r="AY21" s="20">
-        <v>0.29058469999999997</v>
+        <f t="shared" si="4"/>
+        <v>0.29058517720154697</v>
       </c>
       <c r="AZ21" s="20">
-        <v>0.70941529999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.70941482279845303</v>
       </c>
       <c r="BA21" s="20">
         <v>3.1128689999999999</v>
@@ -8222,10 +8356,12 @@
         <v>841282.4</v>
       </c>
       <c r="L22" s="3">
-        <v>306814.7</v>
+        <f t="shared" si="0"/>
+        <v>308524.99</v>
       </c>
       <c r="M22" s="3">
-        <v>534467.80000000005</v>
+        <f t="shared" si="1"/>
+        <v>553256.99</v>
       </c>
       <c r="N22" s="2">
         <v>1.5742</v>
@@ -8236,17 +8372,17 @@
       <c r="P22" s="2">
         <v>1.7249699999999999</v>
       </c>
-      <c r="Q22" s="3">
-        <v>121064</v>
-      </c>
-      <c r="R22" s="3">
-        <v>181741</v>
-      </c>
-      <c r="S22" s="3">
-        <v>69438</v>
-      </c>
-      <c r="T22" s="3">
-        <v>469039.4</v>
+      <c r="Q22" s="25">
+        <v>121056.57</v>
+      </c>
+      <c r="R22" s="25">
+        <v>187468.42</v>
+      </c>
+      <c r="S22" s="25">
+        <v>69434.429999999993</v>
+      </c>
+      <c r="T22" s="25">
+        <v>483822.56</v>
       </c>
       <c r="U22" s="3">
         <v>470879.1</v>
@@ -8331,16 +8467,20 @@
       </c>
       <c r="AV22" s="19"/>
       <c r="AW22" s="20">
-        <v>0.63549990000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.63549758256295574</v>
       </c>
       <c r="AX22" s="20">
-        <v>0.36450009999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.36450241743704426</v>
       </c>
       <c r="AY22" s="20">
-        <v>0.27926620000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.27926551314602799</v>
       </c>
       <c r="AZ22" s="20">
-        <v>0.72073379999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.72073448685397201</v>
       </c>
       <c r="BA22" s="20">
         <v>3.2743340000000001</v>
@@ -8531,10 +8671,12 @@
         <v>918084.4</v>
       </c>
       <c r="L23" s="3">
-        <v>332157.5</v>
+        <f t="shared" si="0"/>
+        <v>334486</v>
       </c>
       <c r="M23" s="3">
-        <v>585926.9</v>
+        <f t="shared" si="1"/>
+        <v>608055.02</v>
       </c>
       <c r="N23" s="2">
         <v>1.6340300000000001</v>
@@ -8545,17 +8687,17 @@
       <c r="P23" s="2">
         <v>1.8033600000000001</v>
       </c>
-      <c r="Q23" s="3">
-        <v>131261</v>
-      </c>
-      <c r="R23" s="3">
-        <v>196472</v>
-      </c>
-      <c r="S23" s="3">
-        <v>75855</v>
-      </c>
-      <c r="T23" s="3">
-        <v>514496.4</v>
+      <c r="Q23" s="25">
+        <v>131250.53</v>
+      </c>
+      <c r="R23" s="25">
+        <v>203235.47</v>
+      </c>
+      <c r="S23" s="25">
+        <v>75848.460000000006</v>
+      </c>
+      <c r="T23" s="25">
+        <v>532206.56000000006</v>
       </c>
       <c r="U23" s="3">
         <v>511077.4</v>
@@ -8640,16 +8782,20 @@
       </c>
       <c r="AV23" s="19"/>
       <c r="AW23" s="20">
-        <v>0.63375599999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.6337574606230576</v>
       </c>
       <c r="AX23" s="20">
-        <v>0.36624400000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.36624253937694246</v>
       </c>
       <c r="AY23" s="20">
-        <v>0.27634419999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.27634464948923304</v>
       </c>
       <c r="AZ23" s="20">
-        <v>0.72365579999999996</v>
+        <f t="shared" si="5"/>
+        <v>0.72365535051076701</v>
       </c>
       <c r="BA23" s="20">
         <v>3.5416500000000002</v>
@@ -8840,10 +8986,12 @@
         <v>992611.2</v>
       </c>
       <c r="L24" s="3">
-        <v>352805.2</v>
+        <f t="shared" si="0"/>
+        <v>356136</v>
       </c>
       <c r="M24" s="3">
-        <v>639806.1</v>
+        <f t="shared" si="1"/>
+        <v>663752.99</v>
       </c>
       <c r="N24" s="2">
         <v>1.71211</v>
@@ -8854,17 +9002,17 @@
       <c r="P24" s="2">
         <v>1.90459</v>
       </c>
-      <c r="Q24" s="3">
-        <v>140907</v>
-      </c>
-      <c r="R24" s="3">
-        <v>207857</v>
-      </c>
-      <c r="S24" s="3">
-        <v>83028</v>
-      </c>
-      <c r="T24" s="3">
-        <v>560819.19999999995</v>
+      <c r="Q24" s="25">
+        <v>140900.57999999999</v>
+      </c>
+      <c r="R24" s="25">
+        <v>215235.42</v>
+      </c>
+      <c r="S24" s="25">
+        <v>83024.429999999993</v>
+      </c>
+      <c r="T24" s="25">
+        <v>580728.56000000006</v>
       </c>
       <c r="U24" s="3">
         <v>563248.69999999995</v>
@@ -8949,16 +9097,20 @@
       </c>
       <c r="AV24" s="19"/>
       <c r="AW24" s="20">
-        <v>0.62923169999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.62923109839316294</v>
       </c>
       <c r="AX24" s="20">
-        <v>0.3707683</v>
+        <f t="shared" si="3"/>
+        <v>0.37076890160683706</v>
       </c>
       <c r="AY24" s="20">
-        <v>0.27040900000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.27040849260540656</v>
       </c>
       <c r="AZ24" s="20">
-        <v>0.72959099999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.72959150739459344</v>
       </c>
       <c r="BA24" s="20">
         <v>3.7915130000000001</v>
@@ -9149,10 +9301,12 @@
         <v>1046070.1</v>
       </c>
       <c r="L25" s="3">
-        <v>356139.4</v>
+        <f t="shared" si="0"/>
+        <v>359398</v>
       </c>
       <c r="M25" s="3">
-        <v>689930.8</v>
+        <f t="shared" si="1"/>
+        <v>716506.02</v>
       </c>
       <c r="N25" s="2">
         <v>1.79823</v>
@@ -9163,17 +9317,17 @@
       <c r="P25" s="2">
         <v>2.0158100000000001</v>
       </c>
-      <c r="Q25" s="3">
-        <v>141618</v>
-      </c>
-      <c r="R25" s="3">
-        <v>210120</v>
-      </c>
-      <c r="S25" s="3">
-        <v>86226</v>
-      </c>
-      <c r="T25" s="3">
-        <v>608106.1</v>
+      <c r="Q25" s="25">
+        <v>141615.79999999999</v>
+      </c>
+      <c r="R25" s="25">
+        <v>217782.2</v>
+      </c>
+      <c r="S25" s="25">
+        <v>86224.21</v>
+      </c>
+      <c r="T25" s="25">
+        <v>630281.81000000006</v>
       </c>
       <c r="U25" s="3">
         <v>610929.80000000005</v>
@@ -9258,16 +9412,20 @@
       </c>
       <c r="AV25" s="19"/>
       <c r="AW25" s="20">
-        <v>0.62155689999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.62155808367459242</v>
       </c>
       <c r="AX25" s="20">
-        <v>0.37844319999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.37844191632540747</v>
       </c>
       <c r="AY25" s="20">
-        <v>0.25679940000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.25679924797186005</v>
       </c>
       <c r="AZ25" s="20">
-        <v>0.74320059999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.74320075202813995</v>
       </c>
       <c r="BA25" s="20">
         <v>3.9896150000000001</v>
@@ -9458,10 +9616,12 @@
         <v>1135307.8</v>
       </c>
       <c r="L26" s="3">
-        <v>379330.5</v>
+        <f t="shared" si="0"/>
+        <v>383162.02</v>
       </c>
       <c r="M26" s="3">
-        <v>755977.2</v>
+        <f t="shared" si="1"/>
+        <v>784641.98</v>
       </c>
       <c r="N26" s="2">
         <v>1.8910899999999999</v>
@@ -9472,17 +9632,17 @@
       <c r="P26" s="2">
         <v>2.1375899999999999</v>
       </c>
-      <c r="Q26" s="3">
-        <v>150699</v>
-      </c>
-      <c r="R26" s="3">
-        <v>224258</v>
-      </c>
-      <c r="S26" s="3">
-        <v>96378</v>
-      </c>
-      <c r="T26" s="3">
-        <v>663972.80000000005</v>
+      <c r="Q26" s="25">
+        <v>150699.97</v>
+      </c>
+      <c r="R26" s="25">
+        <v>232462.05</v>
+      </c>
+      <c r="S26" s="25">
+        <v>96379.04</v>
+      </c>
+      <c r="T26" s="25">
+        <v>688262.94</v>
       </c>
       <c r="U26" s="3">
         <v>642072.1</v>
@@ -9567,16 +9727,20 @@
       </c>
       <c r="AV26" s="19"/>
       <c r="AW26" s="20">
-        <v>0.60992729999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.60992623371770838</v>
       </c>
       <c r="AX26" s="20">
-        <v>0.39007269999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.39007376628229162</v>
       </c>
       <c r="AY26" s="20">
-        <v>0.25247720000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.25247718105272671</v>
       </c>
       <c r="AZ26" s="20">
-        <v>0.74752280000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.74752281894727324</v>
       </c>
       <c r="BA26" s="20">
         <v>4.2766729999999997</v>
@@ -9767,10 +9931,12 @@
         <v>1248336.6000000001</v>
       </c>
       <c r="L27" s="3">
-        <v>419217.6</v>
+        <f t="shared" si="0"/>
+        <v>422717</v>
       </c>
       <c r="M27" s="3">
-        <v>829119</v>
+        <f t="shared" si="1"/>
+        <v>859790.99</v>
       </c>
       <c r="N27" s="2">
         <v>1.97509</v>
@@ -9781,17 +9947,17 @@
       <c r="P27" s="2">
         <v>2.2408299999999999</v>
       </c>
-      <c r="Q27" s="3">
-        <v>170733</v>
-      </c>
-      <c r="R27" s="3">
-        <v>243396</v>
-      </c>
-      <c r="S27" s="3">
-        <v>108991</v>
-      </c>
-      <c r="T27" s="3">
-        <v>725216.6</v>
+      <c r="Q27" s="25">
+        <v>170734.95</v>
+      </c>
+      <c r="R27" s="25">
+        <v>251982.05</v>
+      </c>
+      <c r="S27" s="25">
+        <v>108993.05</v>
+      </c>
+      <c r="T27" s="25">
+        <v>750797.94</v>
       </c>
       <c r="U27" s="3">
         <v>709898.8</v>
@@ -9876,16 +10042,20 @@
       </c>
       <c r="AV27" s="19"/>
       <c r="AW27" s="20">
-        <v>0.61036239999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.61036060029743189</v>
       </c>
       <c r="AX27" s="20">
-        <v>0.38963759999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.38963939970256822</v>
       </c>
       <c r="AY27" s="20">
-        <v>0.25128309999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.25128348442613019</v>
       </c>
       <c r="AZ27" s="20">
-        <v>0.74871690000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.74871651557386976</v>
       </c>
       <c r="BA27" s="20">
         <v>4.6141110000000003</v>
@@ -10076,10 +10246,12 @@
         <v>1389186.8</v>
       </c>
       <c r="L28" s="3">
-        <v>480564</v>
+        <f t="shared" si="0"/>
+        <v>483712.02</v>
       </c>
       <c r="M28" s="3">
-        <v>908622.8</v>
+        <f t="shared" si="1"/>
+        <v>944840.98</v>
       </c>
       <c r="N28" s="2">
         <v>2.0898300000000001</v>
@@ -10090,17 +10262,17 @@
       <c r="P28" s="2">
         <v>2.3435999999999999</v>
       </c>
-      <c r="Q28" s="3">
-        <v>194387</v>
-      </c>
-      <c r="R28" s="3">
-        <v>279080</v>
-      </c>
-      <c r="S28" s="3">
-        <v>122301</v>
-      </c>
-      <c r="T28" s="3">
-        <v>793418.8</v>
+      <c r="Q28" s="25">
+        <v>194389.02</v>
+      </c>
+      <c r="R28" s="25">
+        <v>289323</v>
+      </c>
+      <c r="S28" s="25">
+        <v>122301.98</v>
+      </c>
+      <c r="T28" s="25">
+        <v>822539</v>
       </c>
       <c r="U28" s="3">
         <v>795746.8</v>
@@ -10185,16 +10357,20 @@
       </c>
       <c r="AV28" s="19"/>
       <c r="AW28" s="20">
-        <v>0.61381229999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.61381289648269133</v>
       </c>
       <c r="AX28" s="20">
-        <v>0.38618770000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.38618710351730867</v>
       </c>
       <c r="AY28" s="20">
-        <v>0.26021470000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.26021484680652812</v>
       </c>
       <c r="AZ28" s="20">
-        <v>0.73978529999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.73978515319347182</v>
       </c>
       <c r="BA28" s="20">
         <v>5.0604120000000004</v>
@@ -10385,10 +10561,12 @@
         <v>1507131</v>
       </c>
       <c r="L29" s="3">
-        <v>511066.2</v>
+        <f t="shared" si="0"/>
+        <v>514992.99</v>
       </c>
       <c r="M29" s="3">
-        <v>996064.8</v>
+        <f t="shared" si="1"/>
+        <v>1033865.04</v>
       </c>
       <c r="N29" s="2">
         <v>2.2835100000000002</v>
@@ -10399,17 +10577,17 @@
       <c r="P29" s="2">
         <v>2.51736</v>
       </c>
-      <c r="Q29" s="3">
-        <v>206592</v>
-      </c>
-      <c r="R29" s="3">
-        <v>297784</v>
-      </c>
-      <c r="S29" s="3">
-        <v>130110</v>
-      </c>
-      <c r="T29" s="3">
-        <v>872645</v>
+      <c r="Q29" s="25">
+        <v>206592.83</v>
+      </c>
+      <c r="R29" s="25">
+        <v>308400.15999999997</v>
+      </c>
+      <c r="S29" s="25">
+        <v>130111.16</v>
+      </c>
+      <c r="T29" s="25">
+        <v>903753.88</v>
       </c>
       <c r="U29" s="3">
         <v>839624.3</v>
@@ -10494,16 +10672,20 @@
       </c>
       <c r="AV29" s="19"/>
       <c r="AW29" s="20">
-        <v>0.61357519999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.61357404763751089</v>
       </c>
       <c r="AX29" s="20">
-        <v>0.38642480000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.38642595236248911</v>
       </c>
       <c r="AY29" s="20">
-        <v>0.25442300000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.25442324145535161</v>
       </c>
       <c r="AZ29" s="20">
-        <v>0.74557700000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.74557675854464833</v>
       </c>
       <c r="BA29" s="20">
         <v>5.471902</v>
@@ -10694,10 +10876,12 @@
         <v>1637062.3</v>
       </c>
       <c r="L30" s="3">
-        <v>545225.30000000005</v>
+        <f t="shared" si="0"/>
+        <v>550303</v>
       </c>
       <c r="M30" s="3">
-        <v>1091837</v>
+        <f t="shared" si="1"/>
+        <v>1138648.97</v>
       </c>
       <c r="N30" s="2">
         <v>2.4887100000000002</v>
@@ -10708,17 +10892,17 @@
       <c r="P30" s="2">
         <v>2.7072799999999999</v>
       </c>
-      <c r="Q30" s="3">
-        <v>210506</v>
-      </c>
-      <c r="R30" s="3">
-        <v>326650</v>
-      </c>
-      <c r="S30" s="3">
-        <v>137406</v>
-      </c>
-      <c r="T30" s="3">
-        <v>962500.3</v>
+      <c r="Q30" s="25">
+        <v>210504.97</v>
+      </c>
+      <c r="R30" s="25">
+        <v>339798.03</v>
+      </c>
+      <c r="S30" s="25">
+        <v>137405.03</v>
+      </c>
+      <c r="T30" s="25">
+        <v>1001243.94</v>
       </c>
       <c r="U30" s="3">
         <v>911870.1</v>
@@ -10803,16 +10987,20 @@
       </c>
       <c r="AV30" s="19"/>
       <c r="AW30" s="20">
-        <v>0.60505529999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.60505581903365813</v>
       </c>
       <c r="AX30" s="20">
-        <v>0.39494469999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.39494418096634187</v>
       </c>
       <c r="AY30" s="20">
-        <v>0.253384</v>
+        <f t="shared" si="4"/>
+        <v>0.25338359096993812</v>
       </c>
       <c r="AZ30" s="20">
-        <v>0.7466161</v>
+        <f t="shared" si="5"/>
+        <v>0.74661640903006188</v>
       </c>
       <c r="BA30" s="20">
         <v>5.9688129999999999</v>
@@ -11003,10 +11191,12 @@
         <v>1825309.9</v>
       </c>
       <c r="L31" s="3">
-        <v>612529.19999999995</v>
+        <f t="shared" si="0"/>
+        <v>618265.01</v>
       </c>
       <c r="M31" s="3">
-        <v>1212780.8</v>
+        <f t="shared" si="1"/>
+        <v>1259351.02</v>
       </c>
       <c r="N31" s="2">
         <v>2.6396600000000001</v>
@@ -11017,17 +11207,17 @@
       <c r="P31" s="2">
         <v>2.8889300000000002</v>
       </c>
-      <c r="Q31" s="3">
-        <v>240989</v>
-      </c>
-      <c r="R31" s="3">
-        <v>363960</v>
-      </c>
-      <c r="S31" s="3">
-        <v>154765</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1065595.8999999999</v>
+      <c r="Q31" s="25">
+        <v>240986.98</v>
+      </c>
+      <c r="R31" s="25">
+        <v>377278.03</v>
+      </c>
+      <c r="S31" s="25">
+        <v>154763.01999999999</v>
+      </c>
+      <c r="T31" s="25">
+        <v>1104588</v>
       </c>
       <c r="U31" s="3">
         <v>1030431.8</v>
@@ -11112,16 +11302,20 @@
       </c>
       <c r="AV31" s="19"/>
       <c r="AW31" s="20">
-        <v>0.60893640000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.60893740998104862</v>
       </c>
       <c r="AX31" s="20">
-        <v>0.39106360000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.39106259001895133</v>
       </c>
       <c r="AY31" s="20">
-        <v>0.25459660000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.25459658455089901</v>
       </c>
       <c r="AZ31" s="20">
-        <v>0.7454035</v>
+        <f t="shared" si="5"/>
+        <v>0.74540341544910105</v>
       </c>
       <c r="BA31" s="20">
         <v>6.5550100000000002</v>
@@ -11312,10 +11506,12 @@
         <v>2030516.3</v>
       </c>
       <c r="L32" s="3">
-        <v>686541.6</v>
+        <f t="shared" si="0"/>
+        <v>692693</v>
       </c>
       <c r="M32" s="3">
-        <v>1343974.6</v>
+        <f t="shared" si="1"/>
+        <v>1393232.9300000002</v>
       </c>
       <c r="N32" s="2">
         <v>2.8187899999999999</v>
@@ -11326,17 +11522,17 @@
       <c r="P32" s="2">
         <v>3.0789</v>
       </c>
-      <c r="Q32" s="3">
-        <v>284651</v>
-      </c>
-      <c r="R32" s="3">
-        <v>394075</v>
-      </c>
-      <c r="S32" s="3">
-        <v>182801</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1168989.3</v>
+      <c r="Q32" s="25">
+        <v>284645.69</v>
+      </c>
+      <c r="R32" s="25">
+        <v>408047.31</v>
+      </c>
+      <c r="S32" s="25">
+        <v>182797.31</v>
+      </c>
+      <c r="T32" s="25">
+        <v>1210435.6200000001</v>
       </c>
       <c r="U32" s="3">
         <v>1149704</v>
@@ -11421,16 +11617,20 @@
       </c>
       <c r="AV32" s="19"/>
       <c r="AW32" s="20">
-        <v>0.60894170000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.60894203143484871</v>
       </c>
       <c r="AX32" s="20">
-        <v>0.39105830000000003</v>
+        <f t="shared" si="3"/>
+        <v>0.39105796856515124</v>
       </c>
       <c r="AY32" s="20">
-        <v>0.25211689999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.25211715393254097</v>
       </c>
       <c r="AZ32" s="20">
-        <v>0.74788299999999996</v>
+        <f t="shared" si="5"/>
+        <v>0.74788284606745903</v>
       </c>
       <c r="BA32" s="20">
         <v>7.0955170000000001</v>
@@ -11621,10 +11821,12 @@
         <v>2293510.2999999998</v>
       </c>
       <c r="L33" s="3">
-        <v>775739.8</v>
+        <f t="shared" si="0"/>
+        <v>782327</v>
       </c>
       <c r="M33" s="3">
-        <v>1517770.6</v>
+        <f t="shared" si="1"/>
+        <v>1574221.97</v>
       </c>
       <c r="N33" s="2">
         <v>3.0304899999999999</v>
@@ -11635,17 +11837,17 @@
       <c r="P33" s="2">
         <v>3.2936399999999999</v>
       </c>
-      <c r="Q33" s="3">
-        <v>338410</v>
-      </c>
-      <c r="R33" s="3">
-        <v>428357</v>
-      </c>
-      <c r="S33" s="3">
-        <v>219743</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1307000.3</v>
+      <c r="Q33" s="25">
+        <v>338409.91</v>
+      </c>
+      <c r="R33" s="25">
+        <v>443917.09</v>
+      </c>
+      <c r="S33" s="25">
+        <v>219743.09</v>
+      </c>
+      <c r="T33" s="25">
+        <v>1354478.88</v>
       </c>
       <c r="U33" s="3">
         <v>1298036.3</v>
@@ -11730,16 +11932,20 @@
       </c>
       <c r="AV33" s="19"/>
       <c r="AW33" s="20">
-        <v>0.60630329999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.60630312835369504</v>
       </c>
       <c r="AX33" s="20">
-        <v>0.39369670000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.39369687164630485</v>
       </c>
       <c r="AY33" s="20">
-        <v>0.2468408</v>
+        <f t="shared" si="4"/>
+        <v>0.2468405720459883</v>
       </c>
       <c r="AZ33" s="20">
-        <v>0.75315920000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.7531594279540117</v>
       </c>
       <c r="BA33" s="20">
         <v>7.7948389999999996</v>
@@ -11930,10 +12136,12 @@
         <v>2561569</v>
       </c>
       <c r="L34" s="3">
-        <v>869995.4</v>
+        <f t="shared" si="0"/>
+        <v>876793</v>
       </c>
       <c r="M34" s="3">
-        <v>1691573.5</v>
+        <f t="shared" si="1"/>
+        <v>1755360.0699999998</v>
       </c>
       <c r="N34" s="2">
         <v>3.2847499999999998</v>
@@ -11944,17 +12152,17 @@
       <c r="P34" s="2">
         <v>3.5203199999999999</v>
       </c>
-      <c r="Q34" s="3">
-        <v>385625</v>
-      </c>
-      <c r="R34" s="3">
-        <v>473749</v>
-      </c>
-      <c r="S34" s="3">
-        <v>256144</v>
-      </c>
-      <c r="T34" s="3">
-        <v>1446051</v>
+      <c r="Q34" s="25">
+        <v>385626.31</v>
+      </c>
+      <c r="R34" s="25">
+        <v>491166.69</v>
+      </c>
+      <c r="S34" s="25">
+        <v>256144.69</v>
+      </c>
+      <c r="T34" s="25">
+        <v>1499215.38</v>
       </c>
       <c r="U34" s="3">
         <v>1481996.5</v>
@@ -12039,16 +12247,20 @@
       </c>
       <c r="AV34" s="19"/>
       <c r="AW34" s="20">
-        <v>0.60087820000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.60087836627083491</v>
       </c>
       <c r="AX34" s="20">
-        <v>0.39912180000000003</v>
+        <f t="shared" si="3"/>
+        <v>0.39912163372916509</v>
       </c>
       <c r="AY34" s="20">
-        <v>0.24676999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.24677005355057285</v>
       </c>
       <c r="AZ34" s="20">
-        <v>0.75322999999999996</v>
+        <f t="shared" si="5"/>
+        <v>0.7532299464494272</v>
       </c>
       <c r="BA34" s="20">
         <v>8.5284259999999996</v>
@@ -12239,10 +12451,12 @@
         <v>2790478.5</v>
       </c>
       <c r="L35" s="3">
-        <v>919646.7</v>
+        <f t="shared" si="0"/>
+        <v>932086</v>
       </c>
       <c r="M35" s="3">
-        <v>1870831.8</v>
+        <f t="shared" si="1"/>
+        <v>1930431.94</v>
       </c>
       <c r="N35" s="2">
         <v>3.6030099999999998</v>
@@ -12253,17 +12467,17 @@
       <c r="P35" s="2">
         <v>3.8374299999999999</v>
       </c>
-      <c r="Q35" s="3">
-        <v>406974</v>
-      </c>
-      <c r="R35" s="3">
-        <v>507838</v>
-      </c>
-      <c r="S35" s="3">
-        <v>265404</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1610262.5</v>
+      <c r="Q35" s="25">
+        <v>406977.56</v>
+      </c>
+      <c r="R35" s="25">
+        <v>525108.43999999994</v>
+      </c>
+      <c r="S35" s="25">
+        <v>265406.44</v>
+      </c>
+      <c r="T35" s="25">
+        <v>1665025.5</v>
       </c>
       <c r="U35" s="3">
         <v>1646776.1</v>
@@ -12348,16 +12562,20 @@
       </c>
       <c r="AV35" s="19"/>
       <c r="AW35" s="20">
-        <v>0.60527560000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.60527549733485631</v>
       </c>
       <c r="AX35" s="20">
-        <v>0.39472439999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.39472450266514375</v>
       </c>
       <c r="AY35" s="20">
-        <v>0.2397611</v>
+        <f t="shared" si="4"/>
+        <v>0.23976087964738813</v>
       </c>
       <c r="AZ35" s="20">
-        <v>0.76023890000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.76023912035261187</v>
       </c>
       <c r="BA35" s="20">
         <v>9.3010920000000006</v>
@@ -12548,10 +12766,12 @@
         <v>3121636.5</v>
       </c>
       <c r="L36" s="3">
-        <v>1033850.4</v>
+        <f t="shared" si="0"/>
+        <v>1054534</v>
       </c>
       <c r="M36" s="3">
-        <v>2087786.1</v>
+        <f t="shared" si="1"/>
+        <v>2156447</v>
       </c>
       <c r="N36" s="2">
         <v>3.9321999999999999</v>
@@ -12562,17 +12782,17 @@
       <c r="P36" s="2">
         <v>4.1641899999999996</v>
       </c>
-      <c r="Q36" s="3">
-        <v>449155</v>
-      </c>
-      <c r="R36" s="3">
-        <v>583411</v>
-      </c>
-      <c r="S36" s="3">
-        <v>299605</v>
-      </c>
-      <c r="T36" s="3">
-        <v>1789465.5</v>
+      <c r="Q36" s="25">
+        <v>449156.25</v>
+      </c>
+      <c r="R36" s="25">
+        <v>605377.75</v>
+      </c>
+      <c r="S36" s="25">
+        <v>299605.75</v>
+      </c>
+      <c r="T36" s="25">
+        <v>1856841.25</v>
       </c>
       <c r="U36" s="3">
         <v>1814615.1</v>
@@ -12657,16 +12877,20 @@
       </c>
       <c r="AV36" s="19"/>
       <c r="AW36" s="20">
-        <v>0.59986510000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.59986517745291557</v>
       </c>
       <c r="AX36" s="20">
-        <v>0.40013490000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.40013482254708438</v>
       </c>
       <c r="AY36" s="20">
-        <v>0.24586659999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.24586673646820206</v>
       </c>
       <c r="AZ36" s="20">
-        <v>0.75413339999999995</v>
+        <f t="shared" si="5"/>
+        <v>0.75413326353179799</v>
       </c>
       <c r="BA36" s="20">
         <v>10.3165</v>
@@ -12857,10 +13081,12 @@
         <v>3252701.3</v>
       </c>
       <c r="L37" s="3">
-        <v>1029055.6</v>
+        <f t="shared" si="0"/>
+        <v>1047201</v>
       </c>
       <c r="M37" s="3">
-        <v>2223645.5</v>
+        <f t="shared" si="1"/>
+        <v>2297826.9300000002</v>
       </c>
       <c r="N37" s="2">
         <v>4.1762899999999998</v>
@@ -12871,17 +13097,17 @@
       <c r="P37" s="2">
         <v>4.4510199999999998</v>
       </c>
-      <c r="Q37" s="3">
-        <v>445841</v>
-      </c>
-      <c r="R37" s="3">
-        <v>579940</v>
-      </c>
-      <c r="S37" s="3">
-        <v>307050</v>
-      </c>
-      <c r="T37" s="3">
-        <v>1919870.3</v>
+      <c r="Q37" s="25">
+        <v>445842.69</v>
+      </c>
+      <c r="R37" s="25">
+        <v>601358.31000000006</v>
+      </c>
+      <c r="S37" s="25">
+        <v>307051.31</v>
+      </c>
+      <c r="T37" s="25">
+        <v>1990775.62</v>
       </c>
       <c r="U37" s="3">
         <v>1911405.8</v>
@@ -12966,16 +13192,20 @@
       </c>
       <c r="AV37" s="19"/>
       <c r="AW37" s="20">
-        <v>0.59217200000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.592171925928484</v>
       </c>
       <c r="AX37" s="20">
-        <v>0.40782800000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.40782807407151606</v>
       </c>
       <c r="AY37" s="20">
-        <v>0.23199359999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.23199353360572694</v>
       </c>
       <c r="AZ37" s="20">
-        <v>0.76800639999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.76800646639427306</v>
       </c>
       <c r="BA37" s="20">
         <v>10.76493</v>
@@ -13166,10 +13396,12 @@
         <v>3536684</v>
       </c>
       <c r="L38" s="3">
-        <v>1081754.6000000001</v>
+        <f t="shared" si="0"/>
+        <v>1092915</v>
       </c>
       <c r="M38" s="3">
-        <v>2454929.5</v>
+        <f t="shared" si="1"/>
+        <v>2545221</v>
       </c>
       <c r="N38" s="2">
         <v>4.3331</v>
@@ -13180,17 +13412,17 @@
       <c r="P38" s="2">
         <v>4.6798299999999999</v>
       </c>
-      <c r="Q38" s="3">
-        <v>463798</v>
-      </c>
-      <c r="R38" s="3">
-        <v>606514</v>
-      </c>
-      <c r="S38" s="3">
-        <v>350635</v>
-      </c>
-      <c r="T38" s="3">
-        <v>2115737</v>
+      <c r="Q38" s="25">
+        <v>463797.25</v>
+      </c>
+      <c r="R38" s="25">
+        <v>629117.75</v>
+      </c>
+      <c r="S38" s="25">
+        <v>350633.75</v>
+      </c>
+      <c r="T38" s="25">
+        <v>2194587.25</v>
       </c>
       <c r="U38" s="3">
         <v>2042380.5</v>
@@ -13275,16 +13507,20 @@
       </c>
       <c r="AV38" s="19"/>
       <c r="AW38" s="20">
-        <v>0.56947349999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.56947396403132988</v>
       </c>
       <c r="AX38" s="20">
-        <v>0.43052649999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.43052603596867017</v>
       </c>
       <c r="AY38" s="20">
-        <v>0.22279869999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.22279868116534837</v>
       </c>
       <c r="AZ38" s="20">
-        <v>0.77720129999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.7772013188346516</v>
       </c>
       <c r="BA38" s="20">
         <v>11.61702</v>
@@ -13475,10 +13711,12 @@
         <v>3924395.5</v>
       </c>
       <c r="L39" s="3">
-        <v>1215932.8</v>
+        <f t="shared" si="0"/>
+        <v>1229789</v>
       </c>
       <c r="M39" s="3">
-        <v>2708462.8</v>
+        <f t="shared" si="1"/>
+        <v>2810884</v>
       </c>
       <c r="N39" s="2">
         <v>4.4909600000000003</v>
@@ -13489,17 +13727,17 @@
       <c r="P39" s="2">
         <v>4.8801899999999998</v>
       </c>
-      <c r="Q39" s="3">
-        <v>539736</v>
-      </c>
-      <c r="R39" s="3">
-        <v>664108</v>
-      </c>
-      <c r="S39" s="3">
-        <v>408130</v>
-      </c>
-      <c r="T39" s="3">
-        <v>2312421.5</v>
+      <c r="Q39" s="25">
+        <v>539739.75</v>
+      </c>
+      <c r="R39" s="25">
+        <v>690049.25</v>
+      </c>
+      <c r="S39" s="25">
+        <v>408133.25</v>
+      </c>
+      <c r="T39" s="25">
+        <v>2402750.75</v>
       </c>
       <c r="U39" s="3">
         <v>2272605.2999999998</v>
@@ -13584,16 +13822,20 @@
       </c>
       <c r="AV39" s="19"/>
       <c r="AW39" s="20">
-        <v>0.56942219999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.56942201117660274</v>
       </c>
       <c r="AX39" s="20">
-        <v>0.43057770000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.43057798882339721</v>
       </c>
       <c r="AY39" s="20">
-        <v>0.2231149</v>
+        <f t="shared" si="4"/>
+        <v>0.22311473422141748</v>
       </c>
       <c r="AZ39" s="20">
-        <v>0.77688520000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.77688526577858252</v>
       </c>
       <c r="BA39" s="20">
         <v>12.591390000000001</v>
@@ -13784,10 +14026,12 @@
         <v>4225330.5</v>
       </c>
       <c r="L40" s="3">
-        <v>1265461</v>
+        <f t="shared" si="0"/>
+        <v>1280537.9300000002</v>
       </c>
       <c r="M40" s="3">
-        <v>2959869.8</v>
+        <f t="shared" si="1"/>
+        <v>3066206.84</v>
       </c>
       <c r="N40" s="2">
         <v>4.6316499999999996</v>
@@ -13798,17 +14042,17 @@
       <c r="P40" s="2">
         <v>5.1218000000000004</v>
       </c>
-      <c r="Q40" s="3">
-        <v>575883</v>
-      </c>
-      <c r="R40" s="3">
-        <v>678879</v>
-      </c>
-      <c r="S40" s="3">
-        <v>451819</v>
-      </c>
-      <c r="T40" s="3">
-        <v>2518749.5</v>
+      <c r="Q40" s="25">
+        <v>575881.62</v>
+      </c>
+      <c r="R40" s="25">
+        <v>704656.31</v>
+      </c>
+      <c r="S40" s="25">
+        <v>451817.34</v>
+      </c>
+      <c r="T40" s="25">
+        <v>2614389.5</v>
       </c>
       <c r="U40" s="3">
         <v>2468433.2999999998</v>
@@ -13893,16 +14137,20 @@
       </c>
       <c r="AV40" s="19"/>
       <c r="AW40" s="20">
-        <v>0.56035990000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.56036022455447465</v>
       </c>
       <c r="AX40" s="20">
-        <v>0.43964009999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.43963977544552546</v>
       </c>
       <c r="AY40" s="20">
-        <v>0.212307</v>
+        <f t="shared" si="4"/>
+        <v>0.21230689491447544</v>
       </c>
       <c r="AZ40" s="20">
-        <v>0.78769299999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.78769310508552459</v>
       </c>
       <c r="BA40" s="20">
         <v>13.40691</v>
@@ -14093,10 +14341,12 @@
         <v>4466132.5</v>
       </c>
       <c r="L41" s="3">
-        <v>1281382.6000000001</v>
+        <f t="shared" si="0"/>
+        <v>1293185</v>
       </c>
       <c r="M41" s="3">
-        <v>3184749.8</v>
+        <f t="shared" si="1"/>
+        <v>3296983.06</v>
       </c>
       <c r="N41" s="2">
         <v>4.7225799999999998</v>
@@ -14107,17 +14357,17 @@
       <c r="P41" s="2">
         <v>5.2907700000000002</v>
       </c>
-      <c r="Q41" s="3">
-        <v>594229</v>
-      </c>
-      <c r="R41" s="3">
-        <v>674254</v>
-      </c>
-      <c r="S41" s="3">
-        <v>486433</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2711216.5</v>
+      <c r="Q41" s="25">
+        <v>594227.43999999994</v>
+      </c>
+      <c r="R41" s="25">
+        <v>698957.56</v>
+      </c>
+      <c r="S41" s="25">
+        <v>486431.56</v>
+      </c>
+      <c r="T41" s="25">
+        <v>2810551.5</v>
       </c>
       <c r="U41" s="3">
         <v>2613823</v>
@@ -14202,16 +14452,20 @@
       </c>
       <c r="AV41" s="19"/>
       <c r="AW41" s="20">
-        <v>0.549875</v>
+        <f t="shared" si="2"/>
+        <v>0.54987506697302291</v>
       </c>
       <c r="AX41" s="20">
-        <v>0.450125</v>
+        <f t="shared" si="3"/>
+        <v>0.45012493302697704</v>
       </c>
       <c r="AY41" s="20">
-        <v>0.19916110000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.19916106442534731</v>
       </c>
       <c r="AZ41" s="20">
-        <v>0.80083890000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.80083893557465269</v>
       </c>
       <c r="BA41" s="20">
         <v>14.0661</v>
@@ -14402,10 +14656,12 @@
         <v>4753138.5</v>
       </c>
       <c r="L42" s="3">
-        <v>1360536.8</v>
+        <f t="shared" si="0"/>
+        <v>1370745</v>
       </c>
       <c r="M42" s="3">
-        <v>3392601.8</v>
+        <f t="shared" si="1"/>
+        <v>3499480.94</v>
       </c>
       <c r="N42" s="2">
         <v>4.8716400000000002</v>
@@ -14416,17 +14672,17 @@
       <c r="P42" s="2">
         <v>5.5109700000000004</v>
       </c>
-      <c r="Q42" s="3">
-        <v>616978</v>
-      </c>
-      <c r="R42" s="3">
-        <v>730233</v>
-      </c>
-      <c r="S42" s="3">
-        <v>502686</v>
-      </c>
-      <c r="T42" s="3">
-        <v>2903241.5</v>
+      <c r="Q42" s="25">
+        <v>616982.31000000006</v>
+      </c>
+      <c r="R42" s="25">
+        <v>753762.69</v>
+      </c>
+      <c r="S42" s="25">
+        <v>502688.69</v>
+      </c>
+      <c r="T42" s="25">
+        <v>2996792.25</v>
       </c>
       <c r="U42" s="3">
         <v>2806064.5</v>
@@ -14511,16 +14767,20 @@
       </c>
       <c r="AV42" s="19"/>
       <c r="AW42" s="20">
-        <v>0.55103849999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.55103893018574213</v>
       </c>
       <c r="AX42" s="20">
-        <v>0.44896150000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.44896106981425793</v>
       </c>
       <c r="AY42" s="20">
-        <v>0.20097370000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.20097364311639704</v>
       </c>
       <c r="AZ42" s="20">
-        <v>0.79902629999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.79902635688360291</v>
       </c>
       <c r="BA42" s="20">
         <v>14.96224</v>
@@ -14711,10 +14971,12 @@
         <v>5129091.5</v>
       </c>
       <c r="L43" s="3">
-        <v>1458687.9</v>
+        <f t="shared" si="0"/>
+        <v>1469433</v>
       </c>
       <c r="M43" s="3">
-        <v>3670403.5</v>
+        <f t="shared" si="1"/>
+        <v>3783206.06</v>
       </c>
       <c r="N43" s="2">
         <v>5.0456500000000002</v>
@@ -14725,17 +14987,17 @@
       <c r="P43" s="2">
         <v>5.7266700000000004</v>
       </c>
-      <c r="Q43" s="3">
-        <v>650465</v>
-      </c>
-      <c r="R43" s="3">
-        <v>794144</v>
-      </c>
-      <c r="S43" s="3">
-        <v>526417</v>
-      </c>
-      <c r="T43" s="3">
-        <v>3158065.5</v>
+      <c r="Q43" s="25">
+        <v>650462.93999999994</v>
+      </c>
+      <c r="R43" s="25">
+        <v>818970.06</v>
+      </c>
+      <c r="S43" s="25">
+        <v>526416.06000000006</v>
+      </c>
+      <c r="T43" s="25">
+        <v>3256790</v>
       </c>
       <c r="U43" s="3">
         <v>3071243.3</v>
@@ -14820,16 +15082,20 @@
       </c>
       <c r="AV43" s="19"/>
       <c r="AW43" s="20">
-        <v>0.55270200000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.55270162862962113</v>
       </c>
       <c r="AX43" s="20">
-        <v>0.44729799999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.44729837137037881</v>
       </c>
       <c r="AY43" s="20">
-        <v>0.2009367</v>
+        <f t="shared" si="4"/>
+        <v>0.20093676957028722</v>
       </c>
       <c r="AZ43" s="20">
-        <v>0.79906330000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.79906323042971272</v>
       </c>
       <c r="BA43" s="20">
         <v>16.12745</v>
@@ -15020,10 +15286,12 @@
         <v>5519883.5</v>
       </c>
       <c r="L44" s="3">
-        <v>1556168.1</v>
+        <f t="shared" si="0"/>
+        <v>1568689</v>
       </c>
       <c r="M44" s="3">
-        <v>3963715.5</v>
+        <f t="shared" si="1"/>
+        <v>4089006.94</v>
       </c>
       <c r="N44" s="2">
         <v>5.2455800000000004</v>
@@ -15034,17 +15302,17 @@
       <c r="P44" s="2">
         <v>5.9272200000000002</v>
       </c>
-      <c r="Q44" s="3">
-        <v>683806</v>
-      </c>
-      <c r="R44" s="3">
-        <v>857264</v>
-      </c>
-      <c r="S44" s="3">
-        <v>558635</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3420178.5</v>
+      <c r="Q44" s="25">
+        <v>683804.81</v>
+      </c>
+      <c r="R44" s="25">
+        <v>884884.19</v>
+      </c>
+      <c r="S44" s="25">
+        <v>558633.18999999994</v>
+      </c>
+      <c r="T44" s="25">
+        <v>3530373.75</v>
       </c>
       <c r="U44" s="3">
         <v>3220815.3</v>
@@ -15129,16 +15397,20 @@
       </c>
       <c r="AV44" s="19"/>
       <c r="AW44" s="20">
-        <v>0.550373</v>
+        <f t="shared" si="2"/>
+        <v>0.55037338684103354</v>
       </c>
       <c r="AX44" s="20">
-        <v>0.449627</v>
+        <f t="shared" si="3"/>
+        <v>0.44962661315896646</v>
       </c>
       <c r="AY44" s="20">
-        <v>0.20041510000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.20041506114136562</v>
       </c>
       <c r="AZ44" s="20">
-        <v>0.79958490000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.79958493885863446</v>
       </c>
       <c r="BA44" s="20">
         <v>17.290489999999998</v>
@@ -15329,10 +15601,12 @@
         <v>5835094.5</v>
       </c>
       <c r="L45" s="3">
-        <v>1600088</v>
+        <f t="shared" si="0"/>
+        <v>1614440</v>
       </c>
       <c r="M45" s="3">
-        <v>4235006.5</v>
+        <f t="shared" si="1"/>
+        <v>4365157.0600000005</v>
       </c>
       <c r="N45" s="2">
         <v>5.4440999999999997</v>
@@ -15343,17 +15617,17 @@
       <c r="P45" s="2">
         <v>6.1775200000000003</v>
       </c>
-      <c r="Q45" s="3">
-        <v>686742</v>
-      </c>
-      <c r="R45" s="3">
-        <v>899237</v>
-      </c>
-      <c r="S45" s="3">
-        <v>582530</v>
-      </c>
-      <c r="T45" s="3">
-        <v>3666585.5</v>
+      <c r="Q45" s="25">
+        <v>686743.69</v>
+      </c>
+      <c r="R45" s="25">
+        <v>927696.31</v>
+      </c>
+      <c r="S45" s="25">
+        <v>582532.31000000006</v>
+      </c>
+      <c r="T45" s="25">
+        <v>3782624.75</v>
       </c>
       <c r="U45" s="3">
         <v>3418432.3</v>
@@ -15438,16 +15712,20 @@
       </c>
       <c r="AV45" s="19"/>
       <c r="AW45" s="20">
-        <v>0.54105190000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.54105150495242949</v>
       </c>
       <c r="AX45" s="20">
-        <v>0.45894810000000003</v>
+        <f t="shared" si="3"/>
+        <v>0.45894849504757046</v>
       </c>
       <c r="AY45" s="20">
-        <v>0.1969496</v>
+        <f t="shared" si="4"/>
+        <v>0.19694969794691658</v>
       </c>
       <c r="AZ45" s="20">
-        <v>0.80305040000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.80305030205308336</v>
       </c>
       <c r="BA45" s="20">
         <v>18.250080000000001</v>
@@ -15638,10 +15916,12 @@
         <v>6013991.5</v>
       </c>
       <c r="L46" s="3">
-        <v>1580645.3</v>
+        <f t="shared" si="0"/>
+        <v>1597173</v>
       </c>
       <c r="M46" s="3">
-        <v>4433346</v>
+        <f t="shared" si="1"/>
+        <v>4576938.87</v>
       </c>
       <c r="N46" s="2">
         <v>5.6094299999999997</v>
@@ -15652,17 +15932,17 @@
       <c r="P46" s="2">
         <v>6.4190699999999996</v>
       </c>
-      <c r="Q46" s="3">
-        <v>655834</v>
-      </c>
-      <c r="R46" s="3">
-        <v>910797</v>
-      </c>
-      <c r="S46" s="3">
-        <v>582998</v>
-      </c>
-      <c r="T46" s="3">
-        <v>3864362.5</v>
+      <c r="Q46" s="25">
+        <v>655835.38</v>
+      </c>
+      <c r="R46" s="25">
+        <v>941337.62</v>
+      </c>
+      <c r="S46" s="25">
+        <v>582999.62</v>
+      </c>
+      <c r="T46" s="25">
+        <v>3993939.25</v>
       </c>
       <c r="U46" s="3">
         <v>3577624.5</v>
@@ -15747,16 +16027,20 @@
       </c>
       <c r="AV46" s="19"/>
       <c r="AW46" s="20">
-        <v>0.52939709999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.52939687690451109</v>
       </c>
       <c r="AX46" s="20">
-        <v>0.47060299999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.47060312309548891</v>
       </c>
       <c r="AY46" s="20">
-        <v>0.1907365</v>
+        <f t="shared" si="4"/>
+        <v>0.19073653713778371</v>
       </c>
       <c r="AZ46" s="20">
-        <v>0.80926350000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.80926346286221629</v>
       </c>
       <c r="BA46" s="20">
         <v>18.834689999999998</v>
@@ -15947,10 +16231,12 @@
         <v>6370092.5</v>
       </c>
       <c r="L47" s="3">
-        <v>1638973.5</v>
+        <f t="shared" si="0"/>
+        <v>1655451</v>
       </c>
       <c r="M47" s="3">
-        <v>4731119</v>
+        <f t="shared" si="1"/>
+        <v>4883815.25</v>
       </c>
       <c r="N47" s="2">
         <v>5.7447999999999997</v>
@@ -15961,17 +16247,17 @@
       <c r="P47" s="2">
         <v>6.6192000000000002</v>
       </c>
-      <c r="Q47" s="3">
-        <v>678417</v>
-      </c>
-      <c r="R47" s="3">
-        <v>945527</v>
-      </c>
-      <c r="S47" s="3">
-        <v>614379</v>
-      </c>
-      <c r="T47" s="3">
-        <v>4131769.5</v>
+      <c r="Q47" s="25">
+        <v>678420.75</v>
+      </c>
+      <c r="R47" s="25">
+        <v>977030.25</v>
+      </c>
+      <c r="S47" s="25">
+        <v>614382.25</v>
+      </c>
+      <c r="T47" s="25">
+        <v>4269433</v>
       </c>
       <c r="U47" s="3">
         <v>3740753.8</v>
@@ -16056,16 +16342,20 @@
       </c>
       <c r="AV47" s="19"/>
       <c r="AW47" s="20">
-        <v>0.52476719999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.52476730793477433</v>
       </c>
       <c r="AX47" s="20">
-        <v>0.47523280000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.47523269206522573</v>
       </c>
       <c r="AY47" s="20">
-        <v>0.18622649999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.18622645455488515</v>
       </c>
       <c r="AZ47" s="20">
-        <v>0.81377350000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.81377354544511482</v>
       </c>
       <c r="BA47" s="20">
         <v>19.76201</v>
@@ -16256,10 +16546,12 @@
         <v>6699666</v>
       </c>
       <c r="L48" s="3">
-        <v>1691618</v>
+        <f t="shared" si="0"/>
+        <v>1710260</v>
       </c>
       <c r="M48" s="3">
-        <v>5008048</v>
+        <f t="shared" si="1"/>
+        <v>5168466</v>
       </c>
       <c r="N48" s="2">
         <v>5.8893199999999997</v>
@@ -16270,17 +16562,17 @@
       <c r="P48" s="2">
         <v>6.8217299999999996</v>
       </c>
-      <c r="Q48" s="3">
-        <v>719055</v>
-      </c>
-      <c r="R48" s="3">
-        <v>958938</v>
-      </c>
-      <c r="S48" s="3">
-        <v>658840</v>
-      </c>
-      <c r="T48" s="3">
-        <v>4362833</v>
+      <c r="Q48" s="25">
+        <v>719057</v>
+      </c>
+      <c r="R48" s="25">
+        <v>991203</v>
+      </c>
+      <c r="S48" s="25">
+        <v>658841</v>
+      </c>
+      <c r="T48" s="25">
+        <v>4509625</v>
       </c>
       <c r="U48" s="3">
         <v>3962040.5</v>
@@ -16365,16 +16657,20 @@
       </c>
       <c r="AV48" s="19"/>
       <c r="AW48" s="20">
-        <v>0.52185029999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.52185067399763985</v>
       </c>
       <c r="AX48" s="20">
-        <v>0.47814970000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.4781493260023601</v>
       </c>
       <c r="AY48" s="20">
-        <v>0.1801915</v>
+        <f t="shared" si="4"/>
+        <v>0.18019160024636291</v>
       </c>
       <c r="AZ48" s="20">
-        <v>0.81980850000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.81980839975363706</v>
       </c>
       <c r="BA48" s="20">
         <v>20.446169999999999</v>
@@ -16565,10 +16861,12 @@
         <v>7110672</v>
       </c>
       <c r="L49" s="3">
-        <v>1812614.9</v>
+        <f t="shared" si="0"/>
+        <v>1832533</v>
       </c>
       <c r="M49" s="3">
-        <v>5298057</v>
+        <f t="shared" si="1"/>
+        <v>5476234.8100000005</v>
       </c>
       <c r="N49" s="2">
         <v>6.0107100000000004</v>
@@ -16579,17 +16877,17 @@
       <c r="P49" s="2">
         <v>6.9938500000000001</v>
       </c>
-      <c r="Q49" s="3">
-        <v>784635</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1012243</v>
-      </c>
-      <c r="S49" s="3">
-        <v>702238</v>
-      </c>
-      <c r="T49" s="3">
-        <v>4611556</v>
+      <c r="Q49" s="25">
+        <v>784633.19</v>
+      </c>
+      <c r="R49" s="25">
+        <v>1047899.81</v>
+      </c>
+      <c r="S49" s="25">
+        <v>702236.81</v>
+      </c>
+      <c r="T49" s="25">
+        <v>4773998</v>
       </c>
       <c r="U49" s="3">
         <v>4108492.7999999998</v>
@@ -16674,16 +16972,20 @@
       </c>
       <c r="AV49" s="19"/>
       <c r="AW49" s="20">
-        <v>0.52770819999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.52770799733668705</v>
       </c>
       <c r="AX49" s="20">
-        <v>0.47229189999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.47229200266331289</v>
       </c>
       <c r="AY49" s="20">
-        <v>0.17999270000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.17999282093204585</v>
       </c>
       <c r="AZ49" s="20">
-        <v>0.82000729999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.82000717906795406</v>
       </c>
       <c r="BA49" s="20">
         <v>21.346340000000001</v>
@@ -16874,10 +17176,12 @@
         <v>7465376.5</v>
       </c>
       <c r="L50" s="3">
-        <v>1885910.5</v>
+        <f t="shared" si="0"/>
+        <v>1906368</v>
       </c>
       <c r="M50" s="3">
-        <v>5579466</v>
+        <f t="shared" si="1"/>
+        <v>5757698.8799999999</v>
       </c>
       <c r="N50" s="2">
         <v>6.1708800000000004</v>
@@ -16888,17 +17192,17 @@
       <c r="P50" s="2">
         <v>7.1970799999999997</v>
       </c>
-      <c r="Q50" s="3">
-        <v>840555</v>
-      </c>
-      <c r="R50" s="3">
-        <v>1030932</v>
-      </c>
-      <c r="S50" s="3">
-        <v>753448</v>
-      </c>
-      <c r="T50" s="3">
-        <v>4840441.5</v>
+      <c r="Q50" s="25">
+        <v>840546.12</v>
+      </c>
+      <c r="R50" s="25">
+        <v>1065821.8799999999</v>
+      </c>
+      <c r="S50" s="25">
+        <v>753439.88</v>
+      </c>
+      <c r="T50" s="25">
+        <v>5004259</v>
       </c>
       <c r="U50" s="3">
         <v>4331886.5</v>
@@ -16983,16 +17287,20 @@
       </c>
       <c r="AV50" s="19"/>
       <c r="AW50" s="20">
-        <v>0.5273234</v>
+        <f t="shared" si="2"/>
+        <v>0.52732340183665349</v>
       </c>
       <c r="AX50" s="20">
-        <v>0.47267670000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.47267659816334651</v>
       </c>
       <c r="AY50" s="20">
-        <v>0.1755862</v>
+        <f t="shared" si="4"/>
+        <v>0.17558610850008968</v>
       </c>
       <c r="AZ50" s="20">
-        <v>0.82441379999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.82441389149991029</v>
       </c>
       <c r="BA50" s="20">
         <v>22.024149999999999</v>
@@ -17183,10 +17491,12 @@
         <v>7884917</v>
       </c>
       <c r="L51" s="3">
-        <v>1986876.6</v>
+        <f t="shared" si="0"/>
+        <v>2008757.94</v>
       </c>
       <c r="M51" s="3">
-        <v>5898040.5</v>
+        <f t="shared" si="1"/>
+        <v>6091473.8799999999</v>
       </c>
       <c r="N51" s="2">
         <v>6.2631699999999997</v>
@@ -17197,17 +17507,17 @@
       <c r="P51" s="2">
         <v>7.3051199999999996</v>
       </c>
-      <c r="Q51" s="3">
-        <v>896551</v>
-      </c>
-      <c r="R51" s="3">
-        <v>1074668</v>
-      </c>
-      <c r="S51" s="3">
-        <v>824663</v>
-      </c>
-      <c r="T51" s="3">
-        <v>5089035</v>
+      <c r="Q51" s="25">
+        <v>896548.06</v>
+      </c>
+      <c r="R51" s="25">
+        <v>1112209.8799999999</v>
+      </c>
+      <c r="S51" s="25">
+        <v>824659.88</v>
+      </c>
+      <c r="T51" s="25">
+        <v>5266814</v>
       </c>
       <c r="U51" s="3">
         <v>4551839.5</v>
@@ -17292,16 +17602,20 @@
       </c>
       <c r="AV51" s="19"/>
       <c r="AW51" s="20">
-        <v>0.52088299999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.52088306076487201</v>
       </c>
       <c r="AX51" s="20">
-        <v>0.47911710000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.4791169392351281</v>
       </c>
       <c r="AY51" s="20">
-        <v>0.17435429999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.17435424305074085</v>
       </c>
       <c r="AZ51" s="20">
-        <v>0.82564570000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.82564575694925912</v>
       </c>
       <c r="BA51" s="20">
         <v>22.852740000000001</v>
@@ -17492,10 +17806,12 @@
         <v>8384974</v>
       </c>
       <c r="L52" s="3">
-        <v>2085355.5</v>
+        <f t="shared" si="0"/>
+        <v>2097614.0699999998</v>
       </c>
       <c r="M52" s="3">
-        <v>6299618</v>
+        <f t="shared" si="1"/>
+        <v>6479956.8100000005</v>
       </c>
       <c r="N52" s="2">
         <v>6.3539700000000003</v>
@@ -17506,17 +17822,17 @@
       <c r="P52" s="2">
         <v>7.4506300000000003</v>
       </c>
-      <c r="Q52" s="3">
-        <v>964775</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1100389</v>
-      </c>
-      <c r="S52" s="3">
-        <v>886504</v>
-      </c>
-      <c r="T52" s="3">
-        <v>5433306</v>
+      <c r="Q52" s="25">
+        <v>961821.19</v>
+      </c>
+      <c r="R52" s="25">
+        <v>1135792.8799999999</v>
+      </c>
+      <c r="S52" s="25">
+        <v>889458.81</v>
+      </c>
+      <c r="T52" s="25">
+        <v>5590498</v>
       </c>
       <c r="U52" s="3">
         <v>4892870.5</v>
@@ -17601,16 +17917,20 @@
       </c>
       <c r="AV52" s="19"/>
       <c r="AW52" s="20">
-        <v>0.52113969999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.51954387774944899</v>
       </c>
       <c r="AX52" s="20">
-        <v>0.47886030000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.48045612225055101</v>
       </c>
       <c r="AY52" s="20">
-        <v>0.1684176</v>
+        <f t="shared" si="4"/>
+        <v>0.16885872173283115</v>
       </c>
       <c r="AZ52" s="20">
-        <v>0.83158240000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.83114127826716888</v>
       </c>
       <c r="BA52" s="20">
         <v>23.936630000000001</v>
@@ -17801,10 +18121,12 @@
         <v>8843244</v>
       </c>
       <c r="L53" s="3">
-        <v>2142471.2999999998</v>
+        <f t="shared" si="0"/>
+        <v>2156512</v>
       </c>
       <c r="M53" s="3">
-        <v>6700773</v>
+        <f t="shared" si="1"/>
+        <v>6906307.9399999995</v>
       </c>
       <c r="N53" s="2">
         <v>6.4304600000000001</v>
@@ -17815,17 +18137,17 @@
       <c r="P53" s="2">
         <v>7.5856700000000004</v>
       </c>
-      <c r="Q53" s="3">
-        <v>1037787</v>
-      </c>
-      <c r="R53" s="3">
-        <v>1082912</v>
-      </c>
-      <c r="S53" s="3">
-        <v>979166</v>
-      </c>
-      <c r="T53" s="3">
-        <v>5743379</v>
+      <c r="Q53" s="25">
+        <v>1035481.62</v>
+      </c>
+      <c r="R53" s="25">
+        <v>1121030.3799999999</v>
+      </c>
+      <c r="S53" s="25">
+        <v>981469.44</v>
+      </c>
+      <c r="T53" s="25">
+        <v>5924838.5</v>
       </c>
       <c r="U53" s="3">
         <v>5330721.5</v>
@@ -17910,16 +18232,20 @@
       </c>
       <c r="AV53" s="19"/>
       <c r="AW53" s="20">
-        <v>0.51453210000000005</v>
+        <f t="shared" si="2"/>
+        <v>0.51338956137091396</v>
       </c>
       <c r="AX53" s="20">
-        <v>0.48546790000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.48661043862908598</v>
       </c>
       <c r="AY53" s="20">
-        <v>0.15863840000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.15910463267093894</v>
       </c>
       <c r="AZ53" s="20">
-        <v>0.84136160000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.84089536732906112</v>
       </c>
       <c r="BA53" s="20">
         <v>24.719149999999999</v>
@@ -18110,10 +18436,12 @@
         <v>9409659</v>
       </c>
       <c r="L54" s="3">
-        <v>2253388</v>
+        <f t="shared" si="0"/>
+        <v>2265199</v>
       </c>
       <c r="M54" s="3">
-        <v>7156270.5</v>
+        <f t="shared" si="1"/>
+        <v>7365960.75</v>
       </c>
       <c r="N54" s="2">
         <v>6.54148</v>
@@ -18124,17 +18452,17 @@
       <c r="P54" s="2">
         <v>7.7574699999999996</v>
       </c>
-      <c r="Q54" s="3">
-        <v>1119435</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1110086</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1075286</v>
-      </c>
-      <c r="T54" s="3">
-        <v>6104852</v>
+      <c r="Q54" s="25">
+        <v>1116566.75</v>
+      </c>
+      <c r="R54" s="25">
+        <v>1148632.25</v>
+      </c>
+      <c r="S54" s="25">
+        <v>1078162.25</v>
+      </c>
+      <c r="T54" s="25">
+        <v>6287798.5</v>
       </c>
       <c r="U54" s="3">
         <v>5614821.5</v>
@@ -18219,16 +18547,20 @@
       </c>
       <c r="AV54" s="19"/>
       <c r="AW54" s="20">
-        <v>0.51005800000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.50874925788104131</v>
       </c>
       <c r="AX54" s="20">
-        <v>0.48994199999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.49125074211895864</v>
       </c>
       <c r="AY54" s="20">
-        <v>0.15385940000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.15446015549865774</v>
       </c>
       <c r="AZ54" s="20">
-        <v>0.84614060000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.84553984450134223</v>
       </c>
       <c r="BA54" s="20">
         <v>25.829630000000002</v>
@@ -18419,10 +18751,12 @@
         <v>10022643</v>
       </c>
       <c r="L55" s="3">
-        <v>2392084</v>
+        <f t="shared" si="0"/>
+        <v>2400553.88</v>
       </c>
       <c r="M55" s="3">
-        <v>7630559.5</v>
+        <f t="shared" si="1"/>
+        <v>7850399.8799999999</v>
       </c>
       <c r="N55" s="2">
         <v>6.70052</v>
@@ -18433,17 +18767,17 @@
       <c r="P55" s="2">
         <v>7.9786099999999998</v>
       </c>
-      <c r="Q55" s="3">
-        <v>1211485</v>
-      </c>
-      <c r="R55" s="3">
-        <v>1154398</v>
-      </c>
-      <c r="S55" s="3">
-        <v>1161229</v>
-      </c>
-      <c r="T55" s="3">
-        <v>6495531</v>
+      <c r="Q55" s="25">
+        <v>1209483</v>
+      </c>
+      <c r="R55" s="25">
+        <v>1191070.8799999999</v>
+      </c>
+      <c r="S55" s="25">
+        <v>1163229.8799999999</v>
+      </c>
+      <c r="T55" s="25">
+        <v>6687170</v>
       </c>
       <c r="U55" s="3">
         <v>6093353.5</v>
@@ -18528,16 +18862,20 @@
       </c>
       <c r="AV55" s="19"/>
       <c r="AW55" s="20">
-        <v>0.5105904</v>
+        <f t="shared" si="2"/>
+        <v>0.5097468851772744</v>
       </c>
       <c r="AX55" s="20">
-        <v>0.4894096</v>
+        <f t="shared" si="3"/>
+        <v>0.4902531148227256</v>
       </c>
       <c r="AY55" s="20">
-        <v>0.15090310000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.15118487720065751</v>
       </c>
       <c r="AZ55" s="20">
-        <v>0.84909690000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.84881512279934246</v>
       </c>
       <c r="BA55" s="20">
         <v>27.089179999999999</v>
@@ -18728,10 +19066,12 @@
         <v>10359473</v>
       </c>
       <c r="L56" s="3">
-        <v>2363839.7999999998</v>
+        <f t="shared" si="0"/>
+        <v>2365877.88</v>
       </c>
       <c r="M56" s="3">
-        <v>7995633</v>
+        <f t="shared" si="1"/>
+        <v>8216069.1200000001</v>
       </c>
       <c r="N56" s="2">
         <v>6.8692599999999997</v>
@@ -18742,17 +19082,17 @@
       <c r="P56" s="2">
         <v>8.1757799999999996</v>
       </c>
-      <c r="Q56" s="3">
-        <v>1184794</v>
-      </c>
-      <c r="R56" s="3">
-        <v>1148598</v>
-      </c>
-      <c r="S56" s="3">
-        <v>1200215</v>
-      </c>
-      <c r="T56" s="3">
-        <v>6825866</v>
+      <c r="Q56" s="25">
+        <v>1181984.8799999999</v>
+      </c>
+      <c r="R56" s="25">
+        <v>1183893</v>
+      </c>
+      <c r="S56" s="25">
+        <v>1203026.1200000001</v>
+      </c>
+      <c r="T56" s="25">
+        <v>7013043</v>
       </c>
       <c r="U56" s="3">
         <v>6282005.5</v>
@@ -18837,16 +19177,20 @@
       </c>
       <c r="AV56" s="19"/>
       <c r="AW56" s="20">
-        <v>0.49676710000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.49558885891930893</v>
       </c>
       <c r="AX56" s="20">
-        <v>0.50323289999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.50441114108069107</v>
       </c>
       <c r="AY56" s="20">
-        <v>0.14403450000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.14443116305897716</v>
       </c>
       <c r="AZ56" s="20">
-        <v>0.85596550000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.85556883694102281</v>
       </c>
       <c r="BA56" s="20">
         <v>27.958500000000001</v>
@@ -19037,10 +19381,12 @@
         <v>10700323</v>
       </c>
       <c r="L57" s="3">
-        <v>2335523.5</v>
+        <f t="shared" si="0"/>
+        <v>2348490</v>
       </c>
       <c r="M57" s="3">
-        <v>8364799</v>
+        <f t="shared" si="1"/>
+        <v>8580609</v>
       </c>
       <c r="N57" s="2">
         <v>6.9550900000000002</v>
@@ -19051,17 +19397,17 @@
       <c r="P57" s="2">
         <v>8.3525500000000008</v>
       </c>
-      <c r="Q57" s="3">
-        <v>1151724</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1163082</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1202395</v>
-      </c>
-      <c r="T57" s="3">
-        <v>7183122</v>
+      <c r="Q57" s="25">
+        <v>1151161.5</v>
+      </c>
+      <c r="R57" s="25">
+        <v>1197328.5</v>
+      </c>
+      <c r="S57" s="25">
+        <v>1202957.5</v>
+      </c>
+      <c r="T57" s="25">
+        <v>7377651.5</v>
       </c>
       <c r="U57" s="3">
         <v>6338332</v>
@@ -19146,16 +19492,20 @@
       </c>
       <c r="AV57" s="19"/>
       <c r="AW57" s="20">
-        <v>0.4892378</v>
+        <f t="shared" si="2"/>
+        <v>0.48899885689720868</v>
       </c>
       <c r="AX57" s="20">
-        <v>0.51076220000000006</v>
+        <f t="shared" si="3"/>
+        <v>0.51100114310279132</v>
       </c>
       <c r="AY57" s="20">
-        <v>0.1393546</v>
+        <f t="shared" si="4"/>
+        <v>0.13963047144133281</v>
       </c>
       <c r="AZ57" s="20">
-        <v>0.8606454</v>
+        <f t="shared" si="5"/>
+        <v>0.86036952855866722</v>
       </c>
       <c r="BA57" s="20">
         <v>28.984400000000001</v>
@@ -19346,10 +19696,12 @@
         <v>11220648</v>
       </c>
       <c r="L58" s="3">
-        <v>2480240</v>
+        <f t="shared" si="0"/>
+        <v>2487408.13</v>
       </c>
       <c r="M58" s="3">
-        <v>8740408</v>
+        <f t="shared" si="1"/>
+        <v>8969063.25</v>
       </c>
       <c r="N58" s="2">
         <v>7.0987200000000001</v>
@@ -19360,17 +19712,17 @@
       <c r="P58" s="2">
         <v>8.5026100000000007</v>
       </c>
-      <c r="Q58" s="3">
-        <v>1216581</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1236249</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1260602</v>
-      </c>
-      <c r="T58" s="3">
-        <v>7507216</v>
+      <c r="Q58" s="25">
+        <v>1216191.3799999999</v>
+      </c>
+      <c r="R58" s="25">
+        <v>1271216.75</v>
+      </c>
+      <c r="S58" s="25">
+        <v>1260988.75</v>
+      </c>
+      <c r="T58" s="25">
+        <v>7708074.5</v>
       </c>
       <c r="U58" s="3">
         <v>6580236.5</v>
@@ -19455,16 +19807,20 @@
       </c>
       <c r="AV58" s="19"/>
       <c r="AW58" s="20">
-        <v>0.49111470000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.49095799101214327</v>
       </c>
       <c r="AX58" s="20">
-        <v>0.50888529999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.50904200898785668</v>
       </c>
       <c r="AY58" s="20">
-        <v>0.14139119999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.14157205893059766</v>
       </c>
       <c r="AZ58" s="20">
-        <v>0.85860879999999995</v>
+        <f t="shared" si="5"/>
+        <v>0.85842794106940234</v>
       </c>
       <c r="BA58" s="20">
         <v>30.08494</v>
@@ -19655,10 +20011,12 @@
         <v>11964224</v>
       </c>
       <c r="L59" s="3">
-        <v>2695358.3</v>
+        <f t="shared" si="0"/>
+        <v>2702457</v>
       </c>
       <c r="M59" s="3">
-        <v>9268865</v>
+        <f t="shared" si="1"/>
+        <v>9514742</v>
       </c>
       <c r="N59" s="2">
         <v>7.3051199999999996</v>
@@ -19669,17 +20027,17 @@
       <c r="P59" s="2">
         <v>8.7455200000000008</v>
       </c>
-      <c r="Q59" s="3">
-        <v>1344314</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1321505</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1359075</v>
-      </c>
-      <c r="T59" s="3">
-        <v>7939330</v>
+      <c r="Q59" s="25">
+        <v>1344135.12</v>
+      </c>
+      <c r="R59" s="25">
+        <v>1358321.88</v>
+      </c>
+      <c r="S59" s="25">
+        <v>1359256</v>
+      </c>
+      <c r="T59" s="25">
+        <v>8155486</v>
       </c>
       <c r="U59" s="3">
         <v>6947251</v>
@@ -19764,16 +20122,20 @@
       </c>
       <c r="AV59" s="19"/>
       <c r="AW59" s="20">
-        <v>0.49726989999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.49720334954714213</v>
       </c>
       <c r="AX59" s="20">
-        <v>0.50273009999999996</v>
+        <f t="shared" si="3"/>
+        <v>0.50279665045285782</v>
       </c>
       <c r="AY59" s="20">
-        <v>0.1426983</v>
+        <f t="shared" si="4"/>
+        <v>0.14277373446393371</v>
       </c>
       <c r="AZ59" s="20">
-        <v>0.8573018</v>
+        <f t="shared" si="5"/>
+        <v>0.8572262655360664</v>
       </c>
       <c r="BA59" s="20">
         <v>31.578710000000001</v>
@@ -19964,10 +20326,12 @@
         <v>12763681</v>
       </c>
       <c r="L60" s="3">
-        <v>2893720.3</v>
+        <f t="shared" si="0"/>
+        <v>2897595</v>
       </c>
       <c r="M60" s="3">
-        <v>9869961</v>
+        <f t="shared" si="1"/>
+        <v>10141612.120000001</v>
       </c>
       <c r="N60" s="2">
         <v>7.5520899999999997</v>
@@ -19978,17 +20342,17 @@
       <c r="P60" s="2">
         <v>8.9647600000000001</v>
       </c>
-      <c r="Q60" s="3">
-        <v>1499638</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1359805</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1490855</v>
-      </c>
-      <c r="T60" s="3">
-        <v>8413383</v>
+      <c r="Q60" s="25">
+        <v>1499106.88</v>
+      </c>
+      <c r="R60" s="25">
+        <v>1398488.12</v>
+      </c>
+      <c r="S60" s="25">
+        <v>1491384.12</v>
+      </c>
+      <c r="T60" s="25">
+        <v>8650228</v>
       </c>
       <c r="U60" s="3">
         <v>7261420</v>
@@ -20073,16 +20437,20 @@
       </c>
       <c r="AV60" s="19"/>
       <c r="AW60" s="20">
-        <v>0.50146849999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.5012912194017638</v>
       </c>
       <c r="AX60" s="20">
-        <v>0.49853150000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.49870878059823626</v>
       </c>
       <c r="AY60" s="20">
-        <v>0.13913629999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.13917082573529801</v>
       </c>
       <c r="AZ60" s="20">
-        <v>0.86086370000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.86082917426470185</v>
       </c>
       <c r="BA60" s="20">
         <v>33.01831</v>
@@ -20273,10 +20641,12 @@
         <v>13497656</v>
       </c>
       <c r="L61" s="3">
-        <v>3103672.5</v>
+        <f t="shared" si="0"/>
+        <v>3117501</v>
       </c>
       <c r="M61" s="3">
-        <v>10393984</v>
+        <f t="shared" si="1"/>
+        <v>10698076.379999999</v>
       </c>
       <c r="N61" s="2">
         <v>7.7677699999999996</v>
@@ -20287,17 +20657,17 @@
       <c r="P61" s="2">
         <v>9.2102900000000005</v>
       </c>
-      <c r="Q61" s="3">
-        <v>1621707</v>
-      </c>
-      <c r="R61" s="3">
-        <v>1449961</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1561151</v>
-      </c>
-      <c r="T61" s="3">
-        <v>8864837</v>
+      <c r="Q61" s="25">
+        <v>1619944.62</v>
+      </c>
+      <c r="R61" s="25">
+        <v>1497556.38</v>
+      </c>
+      <c r="S61" s="25">
+        <v>1562914.38</v>
+      </c>
+      <c r="T61" s="25">
+        <v>9135162</v>
       </c>
       <c r="U61" s="3">
         <v>7746959.5</v>
@@ -20382,16 +20752,20 @@
       </c>
       <c r="AV61" s="19"/>
       <c r="AW61" s="20">
-        <v>0.50951279999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.50895896425195086</v>
       </c>
       <c r="AX61" s="20">
-        <v>0.49048720000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.49104103574804914</v>
       </c>
       <c r="AY61" s="20">
-        <v>0.140571</v>
+        <f t="shared" si="4"/>
+        <v>0.14084416858222101</v>
       </c>
       <c r="AZ61" s="20">
-        <v>0.85942909999999995</v>
+        <f t="shared" si="5"/>
+        <v>0.85915583141777907</v>
       </c>
       <c r="BA61" s="20">
         <v>34.51867</v>
@@ -20582,10 +20956,12 @@
         <v>14117333</v>
       </c>
       <c r="L62" s="3">
-        <v>3226661.8</v>
+        <f t="shared" si="0"/>
+        <v>3253758</v>
       </c>
       <c r="M62" s="3">
-        <v>10890671</v>
+        <f t="shared" si="1"/>
+        <v>11220473.379999999</v>
       </c>
       <c r="N62" s="2">
         <v>8.0017700000000005</v>
@@ -20596,17 +20972,17 @@
       <c r="P62" s="2">
         <v>9.4923699999999993</v>
       </c>
-      <c r="Q62" s="3">
-        <v>1648355</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1553906</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1582729</v>
-      </c>
-      <c r="T62" s="3">
-        <v>9332343</v>
+      <c r="Q62" s="25">
+        <v>1646062.5</v>
+      </c>
+      <c r="R62" s="25">
+        <v>1607695.5</v>
+      </c>
+      <c r="S62" s="25">
+        <v>1585016.38</v>
+      </c>
+      <c r="T62" s="25">
+        <v>9635457</v>
       </c>
       <c r="U62" s="3">
         <v>8060485.5</v>
@@ -20691,16 +21067,20 @@
       </c>
       <c r="AV62" s="19"/>
       <c r="AW62" s="20">
-        <v>0.51015540000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.50944670840100326</v>
       </c>
       <c r="AX62" s="20">
-        <v>0.48984460000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.4905532915989968</v>
       </c>
       <c r="AY62" s="20">
-        <v>0.14274029999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.14299330192310386</v>
       </c>
       <c r="AZ62" s="20">
-        <v>0.85725980000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.85700669807689611</v>
       </c>
       <c r="BA62" s="20">
         <v>36.083500000000001</v>
@@ -20891,10 +21271,12 @@
         <v>14363465</v>
       </c>
       <c r="L63" s="3">
-        <v>3223177.8</v>
+        <f t="shared" si="0"/>
+        <v>3229592</v>
       </c>
       <c r="M63" s="3">
-        <v>11140288</v>
+        <f t="shared" si="1"/>
+        <v>11540289.879999999</v>
       </c>
       <c r="N63" s="2">
         <v>8.1826399999999992</v>
@@ -20905,17 +21287,17 @@
       <c r="P63" s="2">
         <v>9.6849000000000007</v>
       </c>
-      <c r="Q63" s="3">
-        <v>1590288</v>
-      </c>
-      <c r="R63" s="3">
-        <v>1591032</v>
-      </c>
-      <c r="S63" s="3">
-        <v>1546162</v>
-      </c>
-      <c r="T63" s="3">
-        <v>9635983</v>
+      <c r="Q63" s="25">
+        <v>1580098.12</v>
+      </c>
+      <c r="R63" s="25">
+        <v>1649493.88</v>
+      </c>
+      <c r="S63" s="25">
+        <v>1556345.88</v>
+      </c>
+      <c r="T63" s="25">
+        <v>9983944</v>
       </c>
       <c r="U63" s="3">
         <v>8103027</v>
@@ -21000,16 +21382,20 @@
       </c>
       <c r="AV63" s="19"/>
       <c r="AW63" s="20">
-        <v>0.5070344</v>
+        <f t="shared" si="2"/>
+        <v>0.50378649196351033</v>
       </c>
       <c r="AX63" s="20">
-        <v>0.4929656</v>
+        <f t="shared" si="3"/>
+        <v>0.49621350803648967</v>
       </c>
       <c r="AY63" s="20">
-        <v>0.1417146</v>
+        <f t="shared" si="4"/>
+        <v>0.14178903063863699</v>
       </c>
       <c r="AZ63" s="20">
-        <v>0.85828539999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.8582109693613631</v>
       </c>
       <c r="BA63" s="20">
         <v>36.865119999999997</v>
@@ -21200,10 +21586,12 @@
         <v>14068688</v>
       </c>
       <c r="L64" s="3">
-        <v>2943969.8</v>
+        <f t="shared" si="0"/>
+        <v>2923786</v>
       </c>
       <c r="M64" s="3">
-        <v>11124718</v>
+        <f t="shared" si="1"/>
+        <v>11554273.879999999</v>
       </c>
       <c r="N64" s="2">
         <v>8.2320700000000002</v>
@@ -21214,17 +21602,17 @@
       <c r="P64" s="2">
         <v>9.8488600000000002</v>
       </c>
-      <c r="Q64" s="3">
-        <v>1314715</v>
-      </c>
-      <c r="R64" s="3">
-        <v>1564676</v>
-      </c>
-      <c r="S64" s="3">
-        <v>1408629</v>
-      </c>
-      <c r="T64" s="3">
-        <v>9780668</v>
+      <c r="Q64" s="25">
+        <v>1301271.1200000001</v>
+      </c>
+      <c r="R64" s="25">
+        <v>1622514.88</v>
+      </c>
+      <c r="S64" s="25">
+        <v>1422072.88</v>
+      </c>
+      <c r="T64" s="25">
+        <v>10132201</v>
       </c>
       <c r="U64" s="3">
         <v>7824084.5</v>
@@ -21309,16 +21697,20 @@
       </c>
       <c r="AV64" s="19"/>
       <c r="AW64" s="20">
-        <v>0.48275760000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.47782106116597833</v>
       </c>
       <c r="AX64" s="20">
-        <v>0.51724239999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.52217893883402167</v>
       </c>
       <c r="AY64" s="20">
-        <v>0.13791349999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.13803097382903312</v>
       </c>
       <c r="AZ64" s="20">
-        <v>0.86208649999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.86196902617096693</v>
       </c>
       <c r="BA64" s="20">
         <v>36.926650000000002</v>
@@ -21509,10 +21901,12 @@
         <v>14610398</v>
       </c>
       <c r="L65" s="3">
-        <v>3091774</v>
+        <f t="shared" si="0"/>
+        <v>3045253</v>
       </c>
       <c r="M65" s="3">
-        <v>11518625</v>
+        <f t="shared" si="1"/>
+        <v>12003708.120000001</v>
       </c>
       <c r="N65" s="2">
         <v>8.3588299999999993</v>
@@ -21523,17 +21917,17 @@
       <c r="P65" s="2">
         <v>9.9768399999999993</v>
       </c>
-      <c r="Q65" s="3">
-        <v>1318422</v>
-      </c>
-      <c r="R65" s="3">
-        <v>1680574</v>
-      </c>
-      <c r="S65" s="3">
-        <v>1437637</v>
-      </c>
-      <c r="T65" s="3">
-        <v>10173765</v>
+      <c r="Q65" s="25">
+        <v>1310087.8799999999</v>
+      </c>
+      <c r="R65" s="25">
+        <v>1735165.12</v>
+      </c>
+      <c r="S65" s="25">
+        <v>1445970.12</v>
+      </c>
+      <c r="T65" s="25">
+        <v>10557738</v>
       </c>
       <c r="U65" s="3">
         <v>7872716</v>
@@ -21618,16 +22012,20 @@
       </c>
       <c r="AV65" s="19"/>
       <c r="AW65" s="20">
-        <v>0.47837220000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.47534844332013326</v>
       </c>
       <c r="AX65" s="20">
-        <v>0.52162779999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.52465155667986674</v>
       </c>
       <c r="AY65" s="20">
-        <v>0.1417687</v>
+        <f t="shared" si="4"/>
+        <v>0.14115177701001844</v>
       </c>
       <c r="AZ65" s="20">
-        <v>0.85823130000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.85884822298998154</v>
       </c>
       <c r="BA65" s="20">
         <v>38.25967</v>
@@ -21818,10 +22216,12 @@
         <v>15148135</v>
       </c>
       <c r="L66" s="3">
-        <v>3275636.5</v>
+        <f t="shared" si="0"/>
+        <v>3214644</v>
       </c>
       <c r="M66" s="3">
-        <v>11872498</v>
+        <f t="shared" si="1"/>
+        <v>12385098.620000001</v>
       </c>
       <c r="N66" s="2">
         <v>8.5303900000000006</v>
@@ -21832,17 +22232,17 @@
       <c r="P66" s="2">
         <v>10.098369999999999</v>
       </c>
-      <c r="Q66" s="3">
-        <v>1393221</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1766460</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1529698</v>
-      </c>
-      <c r="T66" s="3">
-        <v>10458756</v>
+      <c r="Q66" s="25">
+        <v>1387022.25</v>
+      </c>
+      <c r="R66" s="25">
+        <v>1827621.75</v>
+      </c>
+      <c r="S66" s="25">
+        <v>1535900.62</v>
+      </c>
+      <c r="T66" s="25">
+        <v>10849198</v>
       </c>
       <c r="U66" s="3">
         <v>8269258</v>
@@ -21927,16 +22327,20 @@
       </c>
       <c r="AV66" s="19"/>
       <c r="AW66" s="20">
-        <v>0.47665400000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.47453262083511633</v>
       </c>
       <c r="AX66" s="20">
-        <v>0.52334599999999998</v>
+        <f t="shared" si="3"/>
+        <v>0.52546737916488373</v>
       </c>
       <c r="AY66" s="20">
-        <v>0.14449310000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.14417036654638873</v>
       </c>
       <c r="AZ66" s="20">
-        <v>0.85550680000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.85582963345361129</v>
       </c>
       <c r="BA66" s="20">
         <v>39.146369999999997</v>
@@ -22127,10 +22531,12 @@
         <v>15765227</v>
       </c>
       <c r="L67" s="3">
-        <v>3377712.3</v>
+        <f t="shared" ref="L67:L78" si="6">+Q67+R67</f>
+        <v>3296883</v>
       </c>
       <c r="M67" s="3">
-        <v>12387515</v>
+        <f t="shared" ref="M67:M78" si="7">+S67+T67</f>
+        <v>12957069.25</v>
       </c>
       <c r="N67" s="2">
         <v>8.7006399999999999</v>
@@ -22141,17 +22547,17 @@
       <c r="P67" s="2">
         <v>10.309139999999999</v>
       </c>
-      <c r="Q67" s="3">
-        <v>1497761</v>
-      </c>
-      <c r="R67" s="3">
-        <v>1741039</v>
-      </c>
-      <c r="S67" s="3">
-        <v>1673812</v>
-      </c>
-      <c r="T67" s="3">
-        <v>10852615</v>
+      <c r="Q67" s="25">
+        <v>1488078.75</v>
+      </c>
+      <c r="R67" s="25">
+        <v>1808804.25</v>
+      </c>
+      <c r="S67" s="25">
+        <v>1683496.25</v>
+      </c>
+      <c r="T67" s="25">
+        <v>11273573</v>
       </c>
       <c r="U67" s="3">
         <v>8658893</v>
@@ -22236,16 +22642,20 @@
       </c>
       <c r="AV67" s="19"/>
       <c r="AW67" s="20">
-        <v>0.47224549999999998</v>
+        <f t="shared" ref="AW67:AW72" si="8">Q67/(Q67+S67)</f>
+        <v>0.46919235710963797</v>
       </c>
       <c r="AX67" s="20">
-        <v>0.52775450000000002</v>
+        <f t="shared" ref="AX67:AX78" si="9">S67/(S67+Q67)</f>
+        <v>0.53080764289036209</v>
       </c>
       <c r="AY67" s="20">
-        <v>0.13824729999999999</v>
+        <f t="shared" ref="AY67:AY72" si="10">R67/(R67+T67)</f>
+        <v>0.13826265788199923</v>
       </c>
       <c r="AZ67" s="20">
-        <v>0.86175270000000004</v>
+        <f t="shared" ref="AZ67:AZ72" si="11">T67/(T67+R67)</f>
+        <v>0.86173734211800079</v>
       </c>
       <c r="BA67" s="20">
         <v>40.014789999999998</v>
@@ -22436,10 +22846,12 @@
         <v>16280440</v>
       </c>
       <c r="L68" s="3">
-        <v>3547686</v>
+        <f t="shared" si="6"/>
+        <v>3456902</v>
       </c>
       <c r="M68" s="3">
-        <v>12732754</v>
+        <f t="shared" si="7"/>
+        <v>13423798.75</v>
       </c>
       <c r="N68" s="2">
         <v>8.8285599999999995</v>
@@ -22450,17 +22862,17 @@
       <c r="P68" s="2">
         <v>10.455489999999999</v>
       </c>
-      <c r="Q68" s="3">
-        <v>1568309</v>
-      </c>
-      <c r="R68" s="3">
-        <v>1828433</v>
-      </c>
-      <c r="S68" s="3">
-        <v>1753577</v>
-      </c>
-      <c r="T68" s="3">
-        <v>11130121</v>
+      <c r="Q68" s="25">
+        <v>1565850.38</v>
+      </c>
+      <c r="R68" s="25">
+        <v>1891051.62</v>
+      </c>
+      <c r="S68" s="25">
+        <v>1768828.75</v>
+      </c>
+      <c r="T68" s="25">
+        <v>11654970</v>
       </c>
       <c r="U68" s="3">
         <v>8849509</v>
@@ -22545,16 +22957,20 @@
       </c>
       <c r="AV68" s="19"/>
       <c r="AW68" s="20">
-        <v>0.47211399999999998</v>
+        <f t="shared" si="8"/>
+        <v>0.46956553208164287</v>
       </c>
       <c r="AX68" s="20">
-        <v>0.52788599999999997</v>
+        <f t="shared" si="9"/>
+        <v>0.53043446791835713</v>
       </c>
       <c r="AY68" s="20">
-        <v>0.14109849999999999</v>
+        <f t="shared" si="10"/>
+        <v>0.13960199334156975</v>
       </c>
       <c r="AZ68" s="20">
-        <v>0.85890140000000004</v>
+        <f t="shared" si="11"/>
+        <v>0.86039800665843014</v>
       </c>
       <c r="BA68" s="20">
         <v>40.865960000000001</v>
@@ -22745,10 +23161,12 @@
         <v>16964216</v>
       </c>
       <c r="L69" s="3">
-        <v>3691204.5</v>
+        <f t="shared" si="6"/>
+        <v>3577616.13</v>
       </c>
       <c r="M69" s="3">
-        <v>13273012</v>
+        <f t="shared" si="7"/>
+        <v>14030511.25</v>
       </c>
       <c r="N69" s="2">
         <v>9.0037800000000008</v>
@@ -22759,17 +23177,17 @@
       <c r="P69" s="2">
         <v>10.65648</v>
       </c>
-      <c r="Q69" s="3">
-        <v>1695022</v>
-      </c>
-      <c r="R69" s="3">
-        <v>1830646</v>
-      </c>
-      <c r="S69" s="3">
-        <v>1867758</v>
-      </c>
-      <c r="T69" s="3">
-        <v>11570790</v>
+      <c r="Q69" s="25">
+        <v>1697373.75</v>
+      </c>
+      <c r="R69" s="25">
+        <v>1880242.38</v>
+      </c>
+      <c r="S69" s="25">
+        <v>1898140.25</v>
+      </c>
+      <c r="T69" s="25">
+        <v>12132371</v>
       </c>
       <c r="U69" s="3">
         <v>9245439</v>
@@ -22854,16 +23272,20 @@
       </c>
       <c r="AV69" s="19"/>
       <c r="AW69" s="20">
-        <v>0.47575830000000002</v>
+        <f t="shared" si="8"/>
+        <v>0.47208097367998009</v>
       </c>
       <c r="AX69" s="20">
-        <v>0.52424170000000003</v>
+        <f t="shared" si="9"/>
+        <v>0.52791902632001986</v>
       </c>
       <c r="AY69" s="20">
-        <v>0.13660069999999999</v>
+        <f t="shared" si="10"/>
+        <v>0.13418213498159043</v>
       </c>
       <c r="AZ69" s="20">
-        <v>0.86339929999999998</v>
+        <f t="shared" si="11"/>
+        <v>0.86581786501840963</v>
       </c>
       <c r="BA69" s="20">
         <v>41.93177</v>
@@ -23054,10 +23476,12 @@
         <v>17565464</v>
       </c>
       <c r="L70" s="3">
-        <v>3633273.5</v>
+        <f t="shared" si="6"/>
+        <v>3531353</v>
       </c>
       <c r="M70" s="3">
-        <v>13932191</v>
+        <f t="shared" si="7"/>
+        <v>14763690.379999999</v>
       </c>
       <c r="N70" s="2">
         <v>9.0815699999999993</v>
@@ -23068,17 +23492,17 @@
       <c r="P70" s="2">
         <v>10.892530000000001</v>
       </c>
-      <c r="Q70" s="3">
-        <v>1747533</v>
-      </c>
-      <c r="R70" s="3">
-        <v>1735359</v>
-      </c>
-      <c r="S70" s="3">
-        <v>1975446</v>
-      </c>
-      <c r="T70" s="3">
-        <v>12107126</v>
+      <c r="Q70" s="25">
+        <v>1749683.62</v>
+      </c>
+      <c r="R70" s="25">
+        <v>1781669.38</v>
+      </c>
+      <c r="S70" s="25">
+        <v>2028109.38</v>
+      </c>
+      <c r="T70" s="25">
+        <v>12735581</v>
       </c>
       <c r="U70" s="3">
         <v>9481602</v>
@@ -23163,16 +23587,20 @@
       </c>
       <c r="AV70" s="19"/>
       <c r="AW70" s="20">
-        <v>0.469391</v>
+        <f t="shared" si="8"/>
+        <v>0.46314968024981784</v>
       </c>
       <c r="AX70" s="20">
-        <v>0.530609</v>
+        <f t="shared" si="9"/>
+        <v>0.53685031975018216</v>
       </c>
       <c r="AY70" s="20">
-        <v>0.1253647</v>
+        <f t="shared" si="10"/>
+        <v>0.12272774343373968</v>
       </c>
       <c r="AZ70" s="20">
-        <v>0.8746353</v>
+        <f t="shared" si="11"/>
+        <v>0.8772722565662604</v>
       </c>
       <c r="BA70" s="20">
         <v>42.973999999999997</v>
@@ -23363,10 +23791,12 @@
         <v>18026634</v>
       </c>
       <c r="L71" s="3">
-        <v>3590453.5</v>
+        <f t="shared" si="6"/>
+        <v>3494771</v>
       </c>
       <c r="M71" s="3">
-        <v>14436181</v>
+        <f t="shared" si="7"/>
+        <v>15310182.25</v>
       </c>
       <c r="N71" s="2">
         <v>9.19299</v>
@@ -23377,17 +23807,17 @@
       <c r="P71" s="2">
         <v>11.10238</v>
       </c>
-      <c r="Q71" s="3">
-        <v>1768812</v>
-      </c>
-      <c r="R71" s="3">
-        <v>1686078</v>
-      </c>
-      <c r="S71" s="3">
-        <v>2039911</v>
-      </c>
-      <c r="T71" s="3">
-        <v>12531833</v>
+      <c r="Q71" s="25">
+        <v>1773402.88</v>
+      </c>
+      <c r="R71" s="25">
+        <v>1721368.12</v>
+      </c>
+      <c r="S71" s="25">
+        <v>2115491.25</v>
+      </c>
+      <c r="T71" s="25">
+        <v>13194691</v>
       </c>
       <c r="U71" s="3">
         <v>9777438</v>
@@ -23472,16 +23902,20 @@
       </c>
       <c r="AV71" s="19"/>
       <c r="AW71" s="20">
-        <v>0.46441080000000001</v>
+        <f t="shared" si="8"/>
+        <v>0.45601726884758365</v>
       </c>
       <c r="AX71" s="20">
-        <v>0.53558919999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.54398273115241635</v>
       </c>
       <c r="AY71" s="20">
-        <v>0.11858829999999999</v>
+        <f t="shared" si="10"/>
+        <v>0.1154036804327174</v>
       </c>
       <c r="AZ71" s="20">
-        <v>0.88141170000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.88459631956728257</v>
       </c>
       <c r="BA71" s="20">
         <v>43.800109999999997</v>
@@ -23672,10 +24106,12 @@
         <v>18810856</v>
       </c>
       <c r="L72" s="3">
-        <v>3794884</v>
+        <f t="shared" si="6"/>
+        <v>3707796.87</v>
       </c>
       <c r="M72" s="3">
-        <v>15015973</v>
+        <f t="shared" si="7"/>
+        <v>15904300.25</v>
       </c>
       <c r="N72" s="2">
         <v>9.4144000000000005</v>
@@ -23686,17 +24122,17 @@
       <c r="P72" s="2">
         <v>11.31823</v>
       </c>
-      <c r="Q72" s="3">
-        <v>1876510</v>
-      </c>
-      <c r="R72" s="3">
-        <v>1798890</v>
-      </c>
-      <c r="S72" s="3">
-        <v>2145202</v>
-      </c>
-      <c r="T72" s="3">
-        <v>12990254</v>
+      <c r="Q72" s="25">
+        <v>1884302.75</v>
+      </c>
+      <c r="R72" s="25">
+        <v>1823494.12</v>
+      </c>
+      <c r="S72" s="25">
+        <v>2232115.25</v>
+      </c>
+      <c r="T72" s="25">
+        <v>13672185</v>
       </c>
       <c r="U72" s="3">
         <v>10225408</v>
@@ -23781,16 +24217,20 @@
       </c>
       <c r="AV72" s="19"/>
       <c r="AW72" s="20">
-        <v>0.46659479999999998</v>
+        <f t="shared" si="8"/>
+        <v>0.45775301487846959</v>
       </c>
       <c r="AX72" s="20">
-        <v>0.53340520000000002</v>
+        <f t="shared" si="9"/>
+        <v>0.54224698512153047</v>
       </c>
       <c r="AY72" s="20">
-        <v>0.1216358</v>
+        <f t="shared" si="10"/>
+        <v>0.11767758649870648</v>
       </c>
       <c r="AZ72" s="20">
-        <v>0.87836409999999998</v>
+        <f t="shared" si="11"/>
+        <v>0.88232241350129348</v>
       </c>
       <c r="BA72" s="20">
         <v>45.246110000000002</v>
@@ -23946,18 +24386,284 @@
         <v>1.957476</v>
       </c>
     </row>
-    <row r="73" spans="1:103" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+    <row r="73" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A73" s="22">
+        <v>2018</v>
+      </c>
+      <c r="B73" s="3">
+        <v>328795</v>
+      </c>
+      <c r="L73" s="3">
+        <f t="shared" si="6"/>
+        <v>3961873</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="7"/>
+        <v>16694655.5</v>
+      </c>
+      <c r="Q73" s="25">
+        <v>2022117.38</v>
+      </c>
+      <c r="R73" s="25">
+        <v>1939755.62</v>
+      </c>
+      <c r="S73" s="25">
+        <v>2376887.5</v>
+      </c>
+      <c r="T73" s="25">
+        <v>14317768</v>
+      </c>
+      <c r="AW73" s="20">
+        <f>Q73/(Q73+S73)</f>
+        <v>0.45967609383511299</v>
+      </c>
+      <c r="AX73" s="20">
+        <f t="shared" si="9"/>
+        <v>0.54032390616488701</v>
+      </c>
+      <c r="AY73" s="20">
+        <f>R73/(R73+T73)</f>
+        <v>0.11931433503277912</v>
+      </c>
+      <c r="AZ73" s="20">
+        <f>T73/(T73+R73)</f>
+        <v>0.88068566496722078</v>
+      </c>
     </row>
     <row r="74" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A74" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B74" s="3">
+        <v>330513</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="6"/>
+        <v>4011589</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="7"/>
+        <v>17528399</v>
+      </c>
+      <c r="Q74" s="25">
+        <v>2072811</v>
+      </c>
+      <c r="R74" s="25">
+        <v>1938778</v>
+      </c>
+      <c r="S74" s="25">
+        <v>2521905</v>
+      </c>
+      <c r="T74" s="25">
+        <v>15006494</v>
+      </c>
       <c r="X74" s="12"/>
       <c r="AH74" s="12"/>
       <c r="AI74" s="12"/>
+      <c r="AW74" s="20">
+        <f t="shared" ref="AW74:AW78" si="12">Q74/(Q74+S74)</f>
+        <v>0.45112929721880524</v>
+      </c>
+      <c r="AX74" s="20">
+        <f t="shared" si="9"/>
+        <v>0.54887070278119476</v>
+      </c>
+      <c r="AY74" s="20">
+        <f t="shared" ref="AY74:AY78" si="13">R74/(R74+T74)</f>
+        <v>0.11441409733641336</v>
+      </c>
+      <c r="AZ74" s="20">
+        <f t="shared" ref="AZ74:AZ78" si="14">T74/(T74+R74)</f>
+        <v>0.88558590266358661</v>
+      </c>
     </row>
     <row r="75" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A75" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B75" s="3">
+        <v>331840</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="L75" s="3">
+        <f t="shared" si="6"/>
+        <v>3817794</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="7"/>
+        <v>17536299.5</v>
+      </c>
+      <c r="Q75" s="25">
+        <v>2006084.5</v>
+      </c>
+      <c r="R75" s="25">
+        <v>1811709.5</v>
+      </c>
+      <c r="S75" s="25">
+        <v>2603785.5</v>
+      </c>
+      <c r="T75" s="25">
+        <v>14932514</v>
+      </c>
       <c r="X75" s="12"/>
       <c r="AH75" s="12"/>
       <c r="AI75" s="12"/>
+      <c r="AW75" s="20">
+        <f t="shared" si="12"/>
+        <v>0.43517159919910975</v>
+      </c>
+      <c r="AX75" s="20">
+        <f t="shared" si="9"/>
+        <v>0.56482840080089025</v>
+      </c>
+      <c r="AY75" s="20">
+        <f t="shared" si="13"/>
+        <v>0.10819907534081828</v>
+      </c>
+      <c r="AZ75" s="20">
+        <f t="shared" si="14"/>
+        <v>0.8918009246591817</v>
+      </c>
+    </row>
+    <row r="76" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A76" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B76" s="3">
+        <v>332505</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="L76" s="3">
+        <f t="shared" si="6"/>
+        <v>4371715</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="7"/>
+        <v>19309442.5</v>
+      </c>
+      <c r="Q76" s="25">
+        <v>2184974.5</v>
+      </c>
+      <c r="R76" s="25">
+        <v>2186740.5</v>
+      </c>
+      <c r="S76" s="25">
+        <v>2854805.5</v>
+      </c>
+      <c r="T76" s="25">
+        <v>16454637</v>
+      </c>
+      <c r="AW76" s="20">
+        <f t="shared" si="12"/>
+        <v>0.43354561111794565</v>
+      </c>
+      <c r="AX76" s="20">
+        <f t="shared" si="9"/>
+        <v>0.56645438888205435</v>
+      </c>
+      <c r="AY76" s="20">
+        <f t="shared" si="13"/>
+        <v>0.11730573558740495</v>
+      </c>
+      <c r="AZ76" s="20">
+        <f t="shared" si="14"/>
+        <v>0.88269426441259502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A77" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="3">
+        <v>334372</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="L77" s="3">
+        <f t="shared" si="6"/>
+        <v>4992982.25</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="7"/>
+        <v>21013933.25</v>
+      </c>
+      <c r="Q77" s="25">
+        <v>2427501.75</v>
+      </c>
+      <c r="R77" s="25">
+        <v>2565480.5</v>
+      </c>
+      <c r="S77" s="25">
+        <v>3131301.25</v>
+      </c>
+      <c r="T77" s="25">
+        <v>17882632</v>
+      </c>
+      <c r="AW77" s="20">
+        <f t="shared" si="12"/>
+        <v>0.43669504927589625</v>
+      </c>
+      <c r="AX77" s="20">
+        <f t="shared" si="9"/>
+        <v>0.56330495072410369</v>
+      </c>
+      <c r="AY77" s="20">
+        <f t="shared" si="13"/>
+        <v>0.12546294920863724</v>
+      </c>
+      <c r="AZ77" s="20">
+        <f t="shared" si="14"/>
+        <v>0.87453705079136279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="A78" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B78" s="3">
+        <v>337141</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="L78" s="3">
+        <f t="shared" si="6"/>
+        <v>5193443</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="7"/>
+        <v>22527244.25</v>
+      </c>
+      <c r="Q78" s="25">
+        <v>2589420.75</v>
+      </c>
+      <c r="R78" s="25">
+        <v>2604022.25</v>
+      </c>
+      <c r="S78" s="25">
+        <v>3340208.25</v>
+      </c>
+      <c r="T78" s="25">
+        <v>19187036</v>
+      </c>
+      <c r="AW78" s="20">
+        <f t="shared" si="12"/>
+        <v>0.43669186554504508</v>
+      </c>
+      <c r="AX78" s="20">
+        <f t="shared" si="9"/>
+        <v>0.56330813445495498</v>
+      </c>
+      <c r="AY78" s="20">
+        <f t="shared" si="13"/>
+        <v>0.11949957730942232</v>
+      </c>
+      <c r="AZ78" s="20">
+        <f t="shared" si="14"/>
+        <v>0.88050042269057771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:103" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+      <c r="C79" s="24"/>
+      <c r="AW79" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
